--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="156">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -4463,6 +4463,75 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>45207.04232334491</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E161" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="F161" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G161" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>45207.042632662036</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F162" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G162" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>45207.04290486111</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D163" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E163" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F163" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G163" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8946,6 +9015,98 @@
         <v>6.0</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>45207.043308252316</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D195" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E195" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F195" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G195" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>45207.04356795139</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D196" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E196" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F196" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G196" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>45207.043908576394</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D197" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E197" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F197" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G197" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>45207.04421738426</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D198" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E198" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F198" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G198" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="156">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -4532,6 +4532,581 @@
         <v>8.0</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>45223.95798555556</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E164" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F164" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G164" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>45223.958458946756</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E165" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F165" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G165" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>45223.95885152778</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E166" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F166" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G166" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>45223.95919872685</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E167" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F167" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G167" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>45223.95953883102</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F168" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G168" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>45223.959864282406</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E169" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F169" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G169" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>45223.96020627314</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F170" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G170" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>45223.96068065972</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E171" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F171" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G171" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>45223.960980069445</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F172" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G172" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>45223.96130672454</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F173" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G173" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>45223.961669375</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D174" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F174" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G174" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>45223.962119062504</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E175" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F175" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G175" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>45223.96247398148</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E176" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F176" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G176" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>45223.962795949075</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E177" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F177" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G177" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>45223.9631175463</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E178" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F178" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="G178" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>45223.96345252315</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F179" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G179" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>45223.9641184838</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F180" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G180" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>45223.96449145833</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F181" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G181" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>45223.96481075231</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F182" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G182" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>45223.96516368055</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="E183" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F183" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G183" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>45223.96546609954</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F184" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G184" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>45223.965913321765</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F185" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G185" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>45223.9661765162</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D186" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F186" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G186" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>45223.96642866898</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E187" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F187" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G187" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>45223.96674383101</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E188" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F188" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G188" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9107,6 +9682,489 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>45223.96824559028</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D199" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F199" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G199" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>45223.96853844907</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D200" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E200" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F200" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G200" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>45223.96887359954</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D201" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E201" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F201" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>45223.969328657404</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E202" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F202" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G202" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>45223.969610092594</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E203" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F203" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G203" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>45223.969926307866</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D204" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E204" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F204" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G204" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>45223.970187962965</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E205" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F205" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G205" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>45223.970468252315</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D206" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E206" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F206" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G206" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>45223.97075071759</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D207" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E207" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F207" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G207" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>45223.97110810185</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D208" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E208" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F208" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G208" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>45223.9713977662</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D209" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E209" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F209" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G209" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>45223.9717909375</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D210" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E210" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F210" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G210" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>45223.97216592592</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D211" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E211" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F211" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G211" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>45223.972491168985</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D212" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E212" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F212" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G212" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>45223.97277825231</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D213" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E213" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F213" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G213" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>45223.973097546295</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D214" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E214" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F214" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G214" s="3">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>45223.9734269676</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D215" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E215" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F215" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G215" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>45223.97374959491</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D216" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E216" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F216" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G216" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2">
+        <v>45223.97398521991</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D217" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E217" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F217" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G217" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>45223.97429023148</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E218" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F218" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G218" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>45223.974601504626</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D219" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E219" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F219" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G219" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="156">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -5314,6 +5314,75 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>45228.62149523148</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E198" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F198" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G198" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>45228.62180443287</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D199" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F199" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G199" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>45228.62215915509</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D200" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E200" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F200" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G200" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10464,6 +10533,75 @@
         <v>5.0</v>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>45228.62005442129</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D224" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E224" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F224" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G224" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>45228.62055934028</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D225" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F225" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G225" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>45228.62083901621</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D226" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E226" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F226" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G226" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="156">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -5383,6 +5383,144 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>45230.94925979167</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D201" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E201" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F201" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G201" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>45230.94967122685</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E202" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F202" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G202" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>45230.95035270833</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E203" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F203" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G203" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>45230.95082759259</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E204" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F204" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G204" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>45230.951210486106</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E205" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F205" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G205" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>45230.9516892824</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D206" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E206" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F206" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G206" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10602,6 +10740,75 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>45230.952492592594</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D227" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E227" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F227" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G227" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>45230.95290554398</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D228" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F228" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G228" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>45230.95325976852</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D229" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E229" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F229" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G229" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="156">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -5521,6 +5521,213 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>45234.0977178125</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D207" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E207" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F207" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G207" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>45234.098046643514</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E208" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F208" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G208" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>45234.09838648148</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D209" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E209" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F209" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G209" s="3">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>45234.098732962964</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E210" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F210" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G210" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>45234.09901042824</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E211" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F211" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G211" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>45234.09928554398</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D212" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E212" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F212" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G212" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>45234.099758136574</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D213" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E213" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F213" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G213" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>45234.10005127315</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E214" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F214" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G214" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>45234.1004403125</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E215" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F215" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G215" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -18939,6 +19146,213 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>45234.10182762731</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E93" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>45234.10215116898</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>45234.10256237269</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D95" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>45234.10299487269</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>45234.10333783565</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F97" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>45234.10365210648</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E98" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F98" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G98" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>45234.104061666665</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F99" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G99" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>45234.104329884256</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>45234.10484542824</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>12.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="156">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -11016,6 +11016,98 @@
         <v>7.0</v>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>45234.12398240741</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D230" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E230" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F230" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G230" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>45234.12431983797</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D231" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E231" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F231" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G231" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>45234.12485857639</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D232" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E232" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F232" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G232" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>45234.125161331016</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D233" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E233" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F233" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G233" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="156">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -5728,6 +5728,75 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>45235.57932800926</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E216" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F216" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G216" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2">
+        <v>45235.57959868056</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E217" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F217" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G217" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>45235.57988909722</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D218" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E218" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F218" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G218" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11108,6 +11177,75 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>45235.58047804398</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D234" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E234" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F234" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G234" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>45235.58080759259</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D235" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E235" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F235" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G235" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>45235.58113938657</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D236" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E236" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F236" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G236" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19445,6 +19583,190 @@
         <v>12.0</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>45235.58194145834</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>45235.58228510417</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F103" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G103" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>45235.582563240736</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D104" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E104" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F104" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G104" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2">
+        <v>45235.582860173614</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D105" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E105" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F105" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G105" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2">
+        <v>45235.583153935186</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F106" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G106" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2">
+        <v>45235.58358706019</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E107" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F107" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G107" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2">
+        <v>45235.58391342593</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D108" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G108" s="3">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2">
+        <v>45235.58420291667</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D109" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G109" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="156">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -5797,6 +5797,351 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>45241.53575734954</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D219" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E219" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F219" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G219" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2">
+        <v>45241.53607336806</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E220" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F220" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G220" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2">
+        <v>45241.536366597225</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D221" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E221" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F221" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G221" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>45241.5368303588</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D222" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E222" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F222" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G222" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>45241.537340787036</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E223" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F223" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G223" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>45241.53766173611</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E224" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F224" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G224" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>45241.538102245366</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E225" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F225" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G225" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>45241.53843861111</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D226" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F226" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G226" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>45241.538840023146</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D227" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E227" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F227" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="G227" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>45241.53913957176</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F228" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G228" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>45241.53957462963</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D229" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E229" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F229" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G229" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>45241.5401890162</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E230" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F230" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G230" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>45241.541954988425</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E231" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F231" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G231" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>45241.5423562963</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E232" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F232" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G232" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>45241.54267967593</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D233" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E233" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F233" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G233" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11246,6 +11591,121 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>45241.54865038194</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D237" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E237" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F237" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G237" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>45241.548967650466</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E238" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F238" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G238" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>45241.54926172453</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D239" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E239" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F239" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G239" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>45241.54978829861</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D240" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E240" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F240" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G240" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>45241.550222708334</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D241" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E241" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F241" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G241" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19767,6 +20227,52 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" s="2">
+        <v>45241.55143841435</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D110" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E110" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G110" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2">
+        <v>45241.55177144676</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D111" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F111" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G111" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="156">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -6142,6 +6142,75 @@
         <v>6.0</v>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>45242.491493912035</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E234" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F234" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G234" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>45242.4917569213</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D235" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E235" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F235" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G235" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>45242.49209269676</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D236" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E236" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F236" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G236" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11706,6 +11775,98 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>45242.492897118056</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D242" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E242" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F242" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G242" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>45242.49317976851</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D243" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E243" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F243" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G243" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>45242.49349552083</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D244" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E244" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F244" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G244" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>45242.49420017361</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D245" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E245" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F245" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G245" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20273,6 +20434,121 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2">
+        <v>45242.49524600695</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F112" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G112" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2">
+        <v>45242.495521550925</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D113" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F113" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G113" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2">
+        <v>45242.49591297454</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E114" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F114" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G114" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2">
+        <v>45242.49620471065</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F115" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G115" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2">
+        <v>45242.49648828704</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D116" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F116" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G116" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="174">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1279,6 +1279,2927 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>45304.02280869213</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>45304.02333055556</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>45304.02363511574</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>45304.023901249995</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>45304.02432480324</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>45304.02459511574</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>45304.0250122338</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>45304.02532371528</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>45304.02578384259</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>45304.02826298611</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>45304.02856777778</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>45304.02889287037</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>45304.02920802083</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>45304.02958969907</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>45304.02989803241</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>45304.03028543982</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>45304.030689583335</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>45304.03109730324</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>45304.031581250005</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>45304.03186497685</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>45304.03216556713</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>45304.0324975463</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>45304.032790578705</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>45304.03306741898</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>45304.03332703703</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>45304.03363690972</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>45304.03388210648</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>45304.035015057874</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>45304.035405717594</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>45304.03570101852</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>45304.03613861111</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>45304.03647229167</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>45304.03674947917</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>45304.03699068287</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>45304.037232546296</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>45304.037492731484</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>45304.03792453704</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>45304.0382578125</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>45304.038613125</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>45304.03912729167</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>45304.03941895833</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>45304.03971640047</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>45304.04007322917</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>45304.04041296296</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>45304.04073405093</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>45304.04487196759</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>45304.04546159723</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>45304.04589958333</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>45304.04615271991</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>45304.04827172453</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>45304.0486994213</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>45304.04904240741</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>45304.049348773144</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>45304.049744143515</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>45304.05026363426</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>45304.05055714121</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>45304.05080332176</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>45304.05115804398</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>45304.051478865746</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G78" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>45304.05179460648</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2">
+        <v>45304.05290991898</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>45304.053191203704</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>45304.05362892361</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F82" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G82" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>45304.056209953706</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>45304.05643707176</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F84" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G84" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>45304.05681322917</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E85" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>45304.05712067129</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>45304.05746659722</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>45304.057808541664</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>45304.05808851852</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>45304.05833828704</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F90" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>45304.05860116898</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>45304.058990474536</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F92" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>45304.05928657408</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>45304.05958751157</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>45304.05990902778</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G95" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>45304.06017409722</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>45304.06049015046</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F97" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>45304.06119832176</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F98" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>45304.061459687495</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F99" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G99" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>45304.061767928244</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>45304.06206188657</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>45304.062413391206</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>45304.06270189815</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F103" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G103" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>45304.063086319446</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E104" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F104" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G104" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2">
+        <v>45304.06341371528</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E105" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F105" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G105" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2">
+        <v>45304.063877673616</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G106" s="3">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2">
+        <v>45304.06425814815</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E107" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F107" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G107" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2">
+        <v>45304.06452986111</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F108" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G108" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2">
+        <v>45304.064777418986</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F109" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G109" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2">
+        <v>45304.06579111111</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E110" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G110" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2">
+        <v>45304.06607332176</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F111" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G111" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2">
+        <v>45304.06639875</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F112" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G112" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2">
+        <v>45304.06692924768</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F113" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G113" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2">
+        <v>45304.067385625</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F114" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G114" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2">
+        <v>45304.0678433912</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F115" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="G115" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2">
+        <v>45304.06833583333</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F116" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2">
+        <v>45304.068688784726</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G117" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2">
+        <v>45304.06899109954</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F118" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G118" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2">
+        <v>45304.06935677084</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F119" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G119" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2">
+        <v>45304.069607847225</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E120" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F120" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G120" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2">
+        <v>45304.06990387732</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F121" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G121" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2">
+        <v>45304.070264803246</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F122" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G122" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
+        <v>45304.07060320602</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F123" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G123" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2">
+        <v>45304.07084601852</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E124" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F124" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G124" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2">
+        <v>45304.07112438657</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E125" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F125" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G125" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2">
+        <v>45304.07146765046</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F126" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G126" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2">
+        <v>45304.07182002315</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F127" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G127" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2">
+        <v>45304.07215119213</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E128" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F128" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G128" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2">
+        <v>45304.07253657407</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F129" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G129" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2">
+        <v>45304.07278368056</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F130" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G130" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2">
+        <v>45304.0730537037</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F131" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G131" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2">
+        <v>45304.07340770833</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F132" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G132" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2">
+        <v>45304.07365261574</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F133" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G133" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2">
+        <v>45304.07405136574</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E134" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F134" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G134" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2">
+        <v>45304.07434604167</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F135" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G135" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2">
+        <v>45304.074698807875</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F136" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G136" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2">
+        <v>45304.075039097224</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F137" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G137" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
+        <v>45304.07538228009</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F138" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G138" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>45304.07567767361</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E139" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F139" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G139" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>45304.07599400463</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F140" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G140" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>45304.07664885417</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E141" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F141" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G141" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>45304.07703141204</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F142" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G142" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>45304.07761552083</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F143" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G143" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>45304.07802813657</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E144" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F144" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G144" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2">
+        <v>45304.07854915509</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E145" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G145" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2">
+        <v>45304.07897820602</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E146" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F146" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G146" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="196">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2395,6 +2395,4327 @@
         <v>1.42</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="3">
+        <v>45305.52917608796</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3">
+        <v>45305.529617858796</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="I53" s="4">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3">
+        <v>45305.53024684028</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G54" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>3.22</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3">
+        <v>45305.53065019676</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="I55" s="4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3">
+        <v>45305.53102204861</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3">
+        <v>45305.53152912037</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G57" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3">
+        <v>45305.532023912034</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>3.29</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3">
+        <v>45305.53242503472</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="I59" s="4">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3">
+        <v>45305.532768784724</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3">
+        <v>45305.533131805554</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1.11</v>
+      </c>
+      <c r="I61" s="4">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3">
+        <v>45305.53571795139</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G62" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="I62" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3">
+        <v>45305.53621363426</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>2.24</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3">
+        <v>45305.5370218287</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="I64" s="4">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3">
+        <v>45305.53784097222</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H65" s="4">
+        <v>2.45</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3">
+        <v>45305.53823947917</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H66" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3">
+        <v>45305.538617708335</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H67" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3">
+        <v>45305.539022743054</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G68" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3">
+        <v>45305.53966212963</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H69" s="4">
+        <v>1.43</v>
+      </c>
+      <c r="I69" s="4">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3">
+        <v>45305.53999528935</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G70" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3">
+        <v>45305.540437083335</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H71" s="4">
+        <v>1.16</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3">
+        <v>45305.540937881946</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3">
+        <v>45305.54147984953</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3">
+        <v>45305.541992094906</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3">
+        <v>45305.54250865741</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G75" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H75" s="4">
+        <v>1.91</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3">
+        <v>45305.542900416665</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G76" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="I76" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3">
+        <v>45305.54334188657</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G77" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H77" s="4">
+        <v>2.98</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3">
+        <v>45305.54382736111</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G78" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H78" s="4">
+        <v>1.77</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3">
+        <v>45305.544211597226</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E79" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F79" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G79" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H79" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="I79" s="4">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3">
+        <v>45305.54456130787</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G80" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H80" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="I80" s="4">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3">
+        <v>45305.5449484375</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G81" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H81" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="I81" s="4">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3">
+        <v>45305.55037340277</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G82" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H82" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="I82" s="4">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3">
+        <v>45305.55070930556</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G83" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="I83" s="4">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3">
+        <v>45305.5510305787</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G84" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="I84" s="4">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3">
+        <v>45305.55134542824</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G85" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H85" s="4">
+        <v>1.73</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3">
+        <v>45305.5516844213</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G86" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H86" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="I86" s="4">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3">
+        <v>45305.55202510417</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G87" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H87" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="I87" s="4">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3">
+        <v>45305.55240483796</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G88" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H88" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3">
+        <v>45305.552788182875</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G89" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H89" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="I89" s="4">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3">
+        <v>45305.55314322917</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G90" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H90" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I90" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3">
+        <v>45305.55350565972</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="G91" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H91" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="I91" s="4">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3">
+        <v>45305.55400369213</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F92" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G92" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3">
+        <v>45305.554350763894</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G93" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="I93" s="4">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3">
+        <v>45305.55465780092</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F94" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G94" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3">
+        <v>45305.55501224537</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F95" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H95" s="4">
+        <v>3.37</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3">
+        <v>45305.55531221065</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E96" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F96" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G96" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H96" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="I96" s="4">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3">
+        <v>45305.555701840276</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E97" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F97" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G97" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="I97" s="4">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3">
+        <v>45305.55602474537</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F98" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G98" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H98" s="4">
+        <v>2.3</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3">
+        <v>45305.556327384256</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E99" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F99" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G99" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H99" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="I99" s="4">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3">
+        <v>45305.55664230324</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E100" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F100" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G100" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H100" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="I100" s="4">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3">
+        <v>45305.556970335645</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F101" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G101" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H101" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3">
+        <v>45306.738382048614</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F102" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G102" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H102" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3">
+        <v>45306.740339930555</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E103" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F103" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G103" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H103" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I103" s="4">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3">
+        <v>45306.74094875</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E104" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F104" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G104" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H104" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="I104" s="4">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3">
+        <v>45306.74159917824</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E105" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F105" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G105" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="I105" s="4">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3">
+        <v>45306.74224224537</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E106" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F106" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G106" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H106" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3">
+        <v>45306.74268708333</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E107" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F107" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G107" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H107" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I107" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3">
+        <v>45306.74311207176</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E108" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F108" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G108" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H108" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3">
+        <v>45306.74350517361</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E109" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F109" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G109" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3">
+        <v>45306.74385349537</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E110" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F110" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G110" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H110" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="I110" s="4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3">
+        <v>45306.74432837963</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E111" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F111" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G111" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H111" s="4">
+        <v>3.49</v>
+      </c>
+      <c r="I111" s="4">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3">
+        <v>45306.794816608795</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E112" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F112" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G112" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H112" s="4">
+        <v>2.96</v>
+      </c>
+      <c r="I112" s="4">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3">
+        <v>45306.79519438658</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F113" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G113" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H113" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="I113" s="4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3">
+        <v>45306.79554665509</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E114" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F114" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G114" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H114" s="4">
+        <v>1.56</v>
+      </c>
+      <c r="I114" s="4">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3">
+        <v>45306.79588668981</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E115" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F115" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="G115" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H115" s="4">
+        <v>2.35</v>
+      </c>
+      <c r="I115" s="4">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3">
+        <v>45306.79633878473</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F116" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G116" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H116" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="I116" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3">
+        <v>45306.796679340274</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E117" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F117" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G117" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H117" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I117" s="4">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3">
+        <v>45306.79705465278</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F118" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G118" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H118" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="I118" s="4">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3">
+        <v>45306.79740052084</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F119" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G119" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H119" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="I119" s="4">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3">
+        <v>45306.79781265046</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E120" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F120" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G120" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H120" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="I120" s="4">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3">
+        <v>45306.7981483912</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E121" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F121" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G121" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H121" s="4">
+        <v>3.21</v>
+      </c>
+      <c r="I121" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3">
+        <v>45306.79965170139</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E122" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F122" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G122" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H122" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="I122" s="4">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3">
+        <v>45306.800049618054</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E123" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F123" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G123" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H123" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I123" s="4">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3">
+        <v>45306.80039704861</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F124" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G124" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="H124" s="4">
+        <v>1.83</v>
+      </c>
+      <c r="I124" s="4">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3">
+        <v>45306.800743217595</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E125" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F125" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G125" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="H125" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="I125" s="4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3">
+        <v>45306.80110722222</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E126" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F126" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G126" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H126" s="4">
+        <v>1.41</v>
+      </c>
+      <c r="I126" s="4">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3">
+        <v>45306.80145944444</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E127" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F127" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G127" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H127" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="I127" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3">
+        <v>45306.80178136574</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E128" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F128" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G128" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H128" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="I128" s="4">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3">
+        <v>45306.8020987037</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E129" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F129" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G129" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H129" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="I129" s="4">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3">
+        <v>45306.802441817126</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E130" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F130" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G130" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H130" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="I130" s="4">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3">
+        <v>45306.80280422454</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E131" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F131" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G131" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H131" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="I131" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3">
+        <v>45306.81610108796</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E132" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F132" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G132" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H132" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I132" s="4">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3">
+        <v>45306.81647533565</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E133" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F133" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G133" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H133" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="I133" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3">
+        <v>45306.81681576389</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E134" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F134" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G134" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H134" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="I134" s="4">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3">
+        <v>45306.81719609954</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E135" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F135" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G135" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H135" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="I135" s="4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3">
+        <v>45306.81758054398</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E136" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F136" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G136" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H136" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="I136" s="4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3">
+        <v>45306.81831365741</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F137" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G137" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H137" s="4">
+        <v>2.56</v>
+      </c>
+      <c r="I137" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3">
+        <v>45306.81865407407</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E138" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F138" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G138" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H138" s="4">
+        <v>1.91</v>
+      </c>
+      <c r="I138" s="4">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3">
+        <v>45306.81904410879</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E139" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F139" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G139" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="H139" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="I139" s="4">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3">
+        <v>45306.81942980324</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E140" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F140" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G140" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H140" s="4">
+        <v>0.57</v>
+      </c>
+      <c r="I140" s="4">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3">
+        <v>45306.819773449075</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E141" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F141" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G141" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H141" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="I141" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3">
+        <v>45306.82054069445</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E142" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F142" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G142" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H142" s="4">
+        <v>1.09</v>
+      </c>
+      <c r="I142" s="4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3">
+        <v>45306.821067847224</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E143" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F143" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G143" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H143" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="I143" s="4">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3">
+        <v>45306.83647634259</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E144" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F144" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G144" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H144" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="I144" s="4">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3">
+        <v>45306.83677480324</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E145" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F145" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G145" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H145" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I145" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3">
+        <v>45306.839006689814</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E146" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F146" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G146" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H146" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="I146" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3">
+        <v>45306.839369293986</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E147" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F147" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G147" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H147" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="I147" s="4">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3">
+        <v>45306.840608680555</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E148" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F148" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G148" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H148" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="I148" s="4">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3">
+        <v>45306.84098313657</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E149" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F149" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G149" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H149" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="I149" s="4">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3">
+        <v>45306.84131952546</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D150" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E150" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F150" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G150" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H150" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="I150" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3">
+        <v>45306.84161898148</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E151" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F151" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G151" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H151" s="4">
+        <v>1.09</v>
+      </c>
+      <c r="I151" s="4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3">
+        <v>45306.843865613424</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E152" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F152" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G152" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H152" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="I152" s="4">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3">
+        <v>45306.92771310185</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E153" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F153" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G153" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H153" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="I153" s="4">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3">
+        <v>45306.92827909722</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E154" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F154" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G154" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H154" s="4">
+        <v>1.86</v>
+      </c>
+      <c r="I154" s="4">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3">
+        <v>45306.92877408565</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E155" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F155" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G155" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H155" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="I155" s="4">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3">
+        <v>45306.929144062495</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E156" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F156" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G156" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H156" s="4">
+        <v>2.03</v>
+      </c>
+      <c r="I156" s="4">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3">
+        <v>45306.92964837963</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E157" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F157" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G157" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H157" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="I157" s="4">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3">
+        <v>45306.93004527778</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E158" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F158" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G158" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="H158" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="I158" s="4">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3">
+        <v>45306.93048304398</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F159" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G159" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H159" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="I159" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3">
+        <v>45306.93096172454</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E160" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F160" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G160" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H160" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="I160" s="4">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3">
+        <v>45306.93141791667</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E161" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F161" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G161" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H161" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="I161" s="4">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3">
+        <v>45306.9355502199</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E162" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F162" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G162" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H162" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="I162" s="4">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3">
+        <v>45306.9360083912</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E163" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F163" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G163" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H163" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="I163" s="4">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3">
+        <v>45306.936503530094</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E164" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F164" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G164" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H164" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="I164" s="4">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3">
+        <v>45306.93694673611</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E165" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F165" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G165" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H165" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="I165" s="4">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3">
+        <v>45306.937385578705</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E166" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F166" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G166" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H166" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="I166" s="4">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3">
+        <v>45306.93781137731</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E167" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F167" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G167" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H167" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="I167" s="4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3">
+        <v>45306.9382434838</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E168" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F168" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G168" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H168" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="I168" s="4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3">
+        <v>45306.938630625</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E169" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F169" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G169" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H169" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="I169" s="4">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3">
+        <v>45306.938990752315</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D170" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E170" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F170" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="G170" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H170" s="4">
+        <v>2.92</v>
+      </c>
+      <c r="I170" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3">
+        <v>45306.93936201389</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E171" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F171" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G171" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H171" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="I171" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3">
+        <v>45306.93988474537</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E172" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F172" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G172" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H172" s="4">
+        <v>0.55</v>
+      </c>
+      <c r="I172" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3">
+        <v>45306.94027020833</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E173" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F173" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G173" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H173" s="4">
+        <v>1.97</v>
+      </c>
+      <c r="I173" s="4">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3">
+        <v>45306.94060930556</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E174" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F174" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G174" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H174" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="I174" s="4">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3">
+        <v>45306.941058125</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E175" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F175" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G175" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H175" s="4">
+        <v>1.56</v>
+      </c>
+      <c r="I175" s="4">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3">
+        <v>45306.94140732639</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D176" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E176" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F176" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G176" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H176" s="4">
+        <v>1.09</v>
+      </c>
+      <c r="I176" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3">
+        <v>45306.94180226851</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E177" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F177" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G177" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H177" s="4">
+        <v>1.77</v>
+      </c>
+      <c r="I177" s="4">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3">
+        <v>45306.94216421296</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E178" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F178" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G178" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H178" s="4">
+        <v>1.13</v>
+      </c>
+      <c r="I178" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3">
+        <v>45306.942515428236</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E179" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F179" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G179" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H179" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="I179" s="4">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3">
+        <v>45306.94287611111</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E180" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F180" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G180" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H180" s="4">
+        <v>1.56</v>
+      </c>
+      <c r="I180" s="4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3">
+        <v>45306.943218252316</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E181" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F181" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G181" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H181" s="4">
+        <v>1.12</v>
+      </c>
+      <c r="I181" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3">
+        <v>45306.944014444445</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E182" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F182" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G182" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H182" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="I182" s="4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3">
+        <v>45306.94430065972</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E183" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F183" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G183" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H183" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="I183" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3">
+        <v>45306.94465550926</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E184" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F184" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G184" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H184" s="4">
+        <v>1.16</v>
+      </c>
+      <c r="I184" s="4">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3">
+        <v>45306.94496584491</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D185" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E185" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F185" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G185" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H185" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="I185" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3">
+        <v>45306.94529167824</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E186" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F186" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G186" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H186" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="I186" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3">
+        <v>45306.94569356482</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E187" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F187" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G187" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H187" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I187" s="4">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3">
+        <v>45306.946005949074</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E188" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F188" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G188" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H188" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="I188" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3">
+        <v>45306.94633641204</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D189" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E189" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F189" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G189" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H189" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I189" s="4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3">
+        <v>45306.94668792824</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D190" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E190" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F190" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G190" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H190" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="I190" s="4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3">
+        <v>45306.94705498843</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D191" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E191" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F191" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G191" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H191" s="4">
+        <v>2.07</v>
+      </c>
+      <c r="I191" s="4">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3">
+        <v>45306.94785527777</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E192" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F192" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G192" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H192" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="I192" s="4">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3">
+        <v>45306.948220555554</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E193" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F193" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G193" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H193" s="4">
+        <v>2.19</v>
+      </c>
+      <c r="I193" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3">
+        <v>45306.94883231481</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E194" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F194" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G194" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H194" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="I194" s="4">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3">
+        <v>45306.94912990741</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E195" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F195" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G195" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H195" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="I195" s="4">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3">
+        <v>45306.94943170139</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D196" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E196" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F196" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G196" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H196" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="I196" s="4">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3">
+        <v>45306.94972891203</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D197" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E197" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F197" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G197" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H197" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="I197" s="4">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3">
+        <v>45306.95011384259</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D198" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E198" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F198" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G198" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H198" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="I198" s="4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3">
+        <v>45306.95050038194</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E199" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F199" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G199" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H199" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="I199" s="4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3">
+        <v>45306.950842673614</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E200" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F200" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G200" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H200" s="4">
+        <v>4.11</v>
+      </c>
+      <c r="I200" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7085,6 +11406,52 @@
         <v>13.0</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" s="3">
+        <v>45306.95284427083</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D204" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E204" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F204" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G204" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="3">
+        <v>45306.95772880787</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D205" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E205" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F205" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G205" s="4">
+        <v>13.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10602,6 +14969,52 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" s="3">
+        <v>45306.953957881946</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D153" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E153" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F153" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G153" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3">
+        <v>45306.95454266203</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D154" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E154" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F154" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G154" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -31064,6 +35477,144 @@
         <v>6.0</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" s="3">
+        <v>45306.95494119213</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D158" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E158" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F158" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G158" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3">
+        <v>45306.95517785879</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D159" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E159" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F159" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G159" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3">
+        <v>45306.95547112268</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D160" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E160" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F160" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G160" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3">
+        <v>45306.95572670139</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D161" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E161" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F161" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G161" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3">
+        <v>45306.95606325231</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D162" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E162" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F162" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G162" s="4">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3">
+        <v>45306.95629125</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D163" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E163" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F163" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G163" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -35593,6 +40144,52 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" s="3">
+        <v>45306.9532990625</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D197" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E197" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F197" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G197" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3">
+        <v>45306.95358185185</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D198" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E198" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F198" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G198" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="196">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -6716,6 +6716,35 @@
         <v>0.34</v>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" s="3">
+        <v>45307.968577719905</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E201" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F201" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G201" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H201" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="I201" s="4">
+        <v>0.27</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -40208,7 +40237,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="13" width="18.88"/>
+    <col customWidth="1" min="1" max="15" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -40233,10 +40262,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>45149.97808577547</v>
+        <v>45307.85339712963</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>140</v>
@@ -40256,10 +40291,16 @@
       <c r="G2" s="4">
         <v>4.0</v>
       </c>
+      <c r="H2" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3">
-        <v>45157.72310185185</v>
+        <v>45307.85374524306</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>142</v>
@@ -40279,10 +40320,16 @@
       <c r="G3" s="4">
         <v>1.0</v>
       </c>
+      <c r="H3" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>45157.72332329861</v>
+        <v>45307.85478635417</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>144</v>
@@ -40302,10 +40349,16 @@
       <c r="G4" s="4">
         <v>6.0</v>
       </c>
+      <c r="H4" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.59</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>45157.72356702546</v>
+        <v>45307.85512550926</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>146</v>
@@ -40320,15 +40373,21 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="4">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G5" s="4">
         <v>3.0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>45157.723919421296</v>
+        <v>45307.85551123843</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>148</v>
@@ -40348,10 +40407,16 @@
       <c r="G6" s="4">
         <v>3.0</v>
       </c>
+      <c r="H6" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>45157.724320243055</v>
+        <v>45307.855858634255</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>150</v>
@@ -40371,10 +40436,16 @@
       <c r="G7" s="4">
         <v>10.0</v>
       </c>
+      <c r="H7" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>45157.72454121528</v>
+        <v>45307.85617915509</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>152</v>
@@ -40394,10 +40465,16 @@
       <c r="G8" s="4">
         <v>6.0</v>
       </c>
+      <c r="H8" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>45157.724867349534</v>
+        <v>45307.856507199074</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>154</v>
@@ -40417,10 +40494,16 @@
       <c r="G9" s="4">
         <v>10.0</v>
       </c>
+      <c r="H9" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>45157.725189282406</v>
+        <v>45307.85689101851</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>156</v>
@@ -40439,6 +40522,4130 @@
       </c>
       <c r="G10" s="4">
         <v>3.0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>45307.85728513889</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>45307.857599131945</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>45307.85791805555</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.43</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>45307.8582622338</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3.27</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>45307.858613668985</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>45307.859033182875</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2.26</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>45307.85937990741</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>45307.85970479167</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>45307.860069166665</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.29</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <v>45307.86044310185</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <v>45307.86078596065</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3">
+        <v>45307.86109958333</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>3.27</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3">
+        <v>45307.86142885417</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1.1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3">
+        <v>45307.86181159722</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3">
+        <v>45307.862183668985</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1.16</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3">
+        <v>45307.86255951389</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2.27</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3">
+        <v>45307.86288965278</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1.28</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3">
+        <v>45307.86327152778</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3">
+        <v>45307.86365516204</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3">
+        <v>45307.863964398144</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3">
+        <v>45307.864347662035</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3">
+        <v>45307.864717777775</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3">
+        <v>45307.86511140046</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2.76</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3">
+        <v>45307.865378877315</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3">
+        <v>45307.86572263889</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3">
+        <v>45307.86610378472</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>2.57</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3">
+        <v>45307.86650172454</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3">
+        <v>45307.867066736115</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3">
+        <v>45307.867446840275</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3">
+        <v>45307.8677719213</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>3.77</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3">
+        <v>45307.86814731482</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3">
+        <v>45307.86853951389</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3">
+        <v>45307.86892533565</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>2.21</v>
+      </c>
+      <c r="I43" s="4">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3">
+        <v>45307.86928510417</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3">
+        <v>45307.86968134259</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3">
+        <v>45307.870090868055</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G46" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3">
+        <v>45307.91325334491</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.14</v>
+      </c>
+      <c r="I47" s="4">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3">
+        <v>45307.913581354165</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3">
+        <v>45307.914035787035</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3">
+        <v>45307.91437003472</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3">
+        <v>45307.91471273148</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>2.18</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3">
+        <v>45307.915078715276</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3">
+        <v>45307.915457905096</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1.41</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3">
+        <v>45307.91579209491</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G54" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>4.67</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3">
+        <v>45307.91617851851</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3">
+        <v>45307.916541203704</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="I56" s="4">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3">
+        <v>45307.91684038195</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G57" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>1.31</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3">
+        <v>45307.91715903935</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I58" s="4">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3">
+        <v>45307.91753274306</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="I59" s="4">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3">
+        <v>45307.91791682871</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="I60" s="4">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3">
+        <v>45307.91827569444</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="I61" s="4">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3">
+        <v>45307.918594131945</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G62" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H62" s="4">
+        <v>3.16</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3">
+        <v>45307.918977511574</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="I63" s="4">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3">
+        <v>45307.919314328705</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3">
+        <v>45307.920759050925</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3">
+        <v>45307.921135474535</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H66" s="4">
+        <v>2.34</v>
+      </c>
+      <c r="I66" s="4">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3">
+        <v>45307.92154564815</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H67" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="I67" s="4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3">
+        <v>45307.92250858796</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="G68" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H68" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="I68" s="4">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3">
+        <v>45307.922913912036</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I69" s="4">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3">
+        <v>45307.92324900463</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G70" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="I70" s="4">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3">
+        <v>45307.92358861111</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H71" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="I71" s="4">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3">
+        <v>45307.92390475694</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3">
+        <v>45307.924230578705</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3">
+        <v>45307.92458515047</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H74" s="4">
+        <v>1.59</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3">
+        <v>45307.92491537037</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G75" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H75" s="4">
+        <v>1.37</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3">
+        <v>45307.92525472222</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G76" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H76" s="4">
+        <v>1.16</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3">
+        <v>45307.9255771412</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G77" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H77" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3">
+        <v>45307.92595667824</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G78" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H78" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3">
+        <v>45307.92633216435</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E79" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F79" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G79" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H79" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="I79" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3">
+        <v>45307.92665704861</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G80" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H80" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="I80" s="4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3">
+        <v>45307.92703333333</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G81" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3">
+        <v>45307.92739974537</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G82" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="I82" s="4">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3">
+        <v>45307.930854502316</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G83" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H83" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3">
+        <v>45307.931198900464</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G84" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="I84" s="4">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3">
+        <v>45307.931726678245</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D85" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G85" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3">
+        <v>45307.93210855324</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G86" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H86" s="4">
+        <v>3.71</v>
+      </c>
+      <c r="I86" s="4">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3">
+        <v>45307.93247196759</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G87" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H87" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I87" s="4">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3">
+        <v>45307.93277621528</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G88" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="H88" s="4">
+        <v>1.13</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3">
+        <v>45307.93307716435</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D89" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G89" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H89" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3">
+        <v>45307.933429756944</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D90" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H90" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="I90" s="4">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3">
+        <v>45307.93377643518</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G91" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H91" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="I91" s="4">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3">
+        <v>45307.93412078704</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F92" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G92" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H92" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3">
+        <v>45307.93445486111</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D93" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G93" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H93" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="I93" s="4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3">
+        <v>45307.93474304398</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F94" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G94" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3">
+        <v>45307.935104097225</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F95" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G95" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H95" s="4">
+        <v>2.05</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3">
+        <v>45307.93542494213</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E96" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F96" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G96" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H96" s="4">
+        <v>2.34</v>
+      </c>
+      <c r="I96" s="4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3">
+        <v>45307.93574609954</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E97" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F97" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G97" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="I97" s="4">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3">
+        <v>45307.93606586805</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F98" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G98" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H98" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3">
+        <v>45307.936361851855</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E99" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F99" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G99" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H99" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3">
+        <v>45307.93668966435</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G100" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H100" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="I100" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3">
+        <v>45307.936987939815</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E101" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F101" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G101" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H101" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3">
+        <v>45307.937332754635</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F102" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G102" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H102" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3">
+        <v>45307.937656875</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D103" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F103" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G103" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H103" s="4">
+        <v>3.35</v>
+      </c>
+      <c r="I103" s="4">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3">
+        <v>45307.93794050926</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F104" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G104" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="I104" s="4">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3">
+        <v>45307.93827543981</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E105" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F105" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G105" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H105" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I105" s="4">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3">
+        <v>45307.93866728009</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D106" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E106" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F106" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G106" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H106" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3">
+        <v>45307.94850047454</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E107" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F107" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G107" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H107" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="I107" s="4">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3">
+        <v>45307.94885936343</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E108" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F108" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="G108" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H108" s="4">
+        <v>5.74</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3">
+        <v>45307.94922113426</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E109" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F109" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G109" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="I109" s="4">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3">
+        <v>45307.9497030787</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E110" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F110" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G110" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H110" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="I110" s="4">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3">
+        <v>45307.95006287037</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D111" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E111" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F111" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G111" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H111" s="4">
+        <v>2.81</v>
+      </c>
+      <c r="I111" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3">
+        <v>45307.950390937505</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E112" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F112" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G112" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="I112" s="4">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3">
+        <v>45307.950688275465</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D113" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E113" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F113" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G113" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H113" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="I113" s="4">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3">
+        <v>45307.951306180556</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D114" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E114" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F114" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G114" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H114" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="I114" s="4">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3">
+        <v>45307.9516605324</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D115" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F115" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G115" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H115" s="4">
+        <v>2.66</v>
+      </c>
+      <c r="I115" s="4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3">
+        <v>45307.95202376157</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F116" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G116" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H116" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="I116" s="4">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3">
+        <v>45307.952427488424</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F117" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G117" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H117" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="I117" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3">
+        <v>45307.952747557865</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F118" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G118" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H118" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="I118" s="4">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3">
+        <v>45307.953022800924</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D119" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F119" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G119" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H119" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="I119" s="4">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3">
+        <v>45307.95335667824</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E120" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F120" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G120" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H120" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="I120" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3">
+        <v>45307.95381494213</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D121" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E121" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F121" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G121" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H121" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="I121" s="4">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3">
+        <v>45307.95420949074</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D122" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E122" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F122" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G122" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H122" s="4">
+        <v>2.27</v>
+      </c>
+      <c r="I122" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3">
+        <v>45307.95464377315</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D123" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E123" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F123" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G123" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H123" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="I123" s="4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3">
+        <v>45307.95513645833</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E124" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F124" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G124" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H124" s="4">
+        <v>1.83</v>
+      </c>
+      <c r="I124" s="4">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3">
+        <v>45307.95560190972</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D125" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F125" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G125" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H125" s="4">
+        <v>1.37</v>
+      </c>
+      <c r="I125" s="4">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3">
+        <v>45307.95615726852</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D126" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F126" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G126" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H126" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="I126" s="4">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3">
+        <v>45307.956543252316</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F127" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G127" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H127" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I127" s="4">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3">
+        <v>45307.95697798611</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D128" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E128" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F128" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G128" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H128" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="I128" s="4">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3">
+        <v>45307.9573391088</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D129" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E129" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F129" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G129" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H129" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="I129" s="4">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3">
+        <v>45307.95778725695</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D130" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F130" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G130" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H130" s="4">
+        <v>1.41</v>
+      </c>
+      <c r="I130" s="4">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3">
+        <v>45307.9581380787</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D131" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E131" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F131" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G131" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H131" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="I131" s="4">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3">
+        <v>45307.95848173611</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D132" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E132" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F132" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G132" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H132" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="I132" s="4">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3">
+        <v>45307.958873090276</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D133" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E133" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F133" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G133" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H133" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I133" s="4">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3">
+        <v>45307.95923256944</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D134" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E134" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F134" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G134" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="H134" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="I134" s="4">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3">
+        <v>45307.959592314815</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D135" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E135" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F135" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G135" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H135" s="4">
+        <v>4.29</v>
+      </c>
+      <c r="I135" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3">
+        <v>45307.959903229166</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D136" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E136" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F136" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G136" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H136" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="I136" s="4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3">
+        <v>45307.96020188657</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D137" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E137" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F137" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G137" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H137" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="I137" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3">
+        <v>45307.96057201389</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D138" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F138" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G138" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H138" s="4">
+        <v>2.21</v>
+      </c>
+      <c r="I138" s="4">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3">
+        <v>45307.96130658565</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D139" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E139" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F139" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G139" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H139" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="I139" s="4">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3">
+        <v>45307.96164686343</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D140" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E140" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F140" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G140" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H140" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="I140" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3">
+        <v>45307.96215600694</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D141" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E141" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F141" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G141" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H141" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="I141" s="4">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3">
+        <v>45307.962525324074</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D142" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E142" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F142" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G142" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H142" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I142" s="4">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3">
+        <v>45307.96289859954</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D143" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E143" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F143" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G143" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H143" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="I143" s="4">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3">
+        <v>45307.96348304398</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D144" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E144" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F144" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G144" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H144" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="I144" s="4">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3">
+        <v>45307.96386510417</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D145" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E145" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F145" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G145" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H145" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="I145" s="4">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3">
+        <v>45307.96427886574</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D146" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E146" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F146" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G146" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H146" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I146" s="4">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3">
+        <v>45307.96512523148</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D147" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E147" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F147" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G147" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H147" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="I147" s="4">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3">
+        <v>45307.965424305556</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D148" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E148" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F148" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G148" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H148" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="I148" s="4">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3">
+        <v>45307.96578150463</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D149" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E149" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F149" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G149" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H149" s="4">
+        <v>2.76</v>
+      </c>
+      <c r="I149" s="4">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3">
+        <v>45307.96609876158</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D150" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E150" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F150" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G150" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H150" s="4">
+        <v>2.73</v>
+      </c>
+      <c r="I150" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3">
+        <v>45307.96639774306</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D151" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E151" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F151" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G151" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H151" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="I151" s="4">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3">
+        <v>45307.96678509259</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D152" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E152" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F152" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G152" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H152" s="4">
+        <v>2.35</v>
+      </c>
+      <c r="I152" s="4">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3707" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="213">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1202,6 +1202,29 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>45311.071793854164</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1220,7 +1243,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="13" width="18.88"/>
+    <col customWidth="1" min="1" max="15" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1245,10 +1268,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45149.97608385417</v>
+        <v>45309.97381391204</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>175</v>
@@ -1268,10 +1297,16 @@
       <c r="G2" s="3">
         <v>7.0</v>
       </c>
+      <c r="H2" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45157.71790055555</v>
+        <v>45309.97409791667</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>177</v>
@@ -1291,10 +1326,16 @@
       <c r="G3" s="3">
         <v>2.0</v>
       </c>
+      <c r="H3" s="3">
+        <v>2.64</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45157.718151458335</v>
+        <v>45309.97440943287</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>179</v>
@@ -1314,10 +1355,16 @@
       <c r="G4" s="3">
         <v>2.0</v>
       </c>
+      <c r="H4" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45157.7183975463</v>
+        <v>45309.97481233796</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>181</v>
@@ -1337,10 +1384,16 @@
       <c r="G5" s="3">
         <v>4.0</v>
       </c>
+      <c r="H5" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45157.71909875</v>
+        <v>45309.9751503588</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>183</v>
@@ -1360,10 +1413,16 @@
       <c r="G6" s="3">
         <v>1.0</v>
       </c>
+      <c r="H6" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45157.71955559027</v>
+        <v>45309.97552565973</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>185</v>
@@ -1383,10 +1442,16 @@
       <c r="G7" s="3">
         <v>7.0</v>
       </c>
+      <c r="H7" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45157.719921724536</v>
+        <v>45309.97582396991</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>187</v>
@@ -1406,10 +1471,16 @@
       <c r="G8" s="3">
         <v>4.0</v>
       </c>
+      <c r="H8" s="3">
+        <v>3.57</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.56</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>45157.72066936342</v>
+        <v>45309.97612335648</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>189</v>
@@ -1429,10 +1500,16 @@
       <c r="G9" s="3">
         <v>3.0</v>
       </c>
+      <c r="H9" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>45157.721104490745</v>
+        <v>45309.97645094908</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>191</v>
@@ -1451,6 +1528,4449 @@
       </c>
       <c r="G10" s="3">
         <v>11.0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>45309.97681694444</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.09</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>45309.977295833334</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>45309.97768329861</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2.14</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>45309.97810478009</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>45309.97843685185</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>45309.97885863426</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>45309.979195277774</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>45309.97952144676</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>45309.97984663195</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>45310.84253920139</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1.91</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>45310.84290574074</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>45310.84329229167</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.12</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>45310.84364074074</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4.44</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>45310.84404207176</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2.33</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>45310.84448526621</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3.37</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>45310.84484261574</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>45310.84519356482</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2.72</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>45310.845555092594</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3.46</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>45310.84600925926</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1.94</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>45310.846646261576</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>45310.84698533565</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>3.28</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>45310.84752222222</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>45310.847907222225</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>45310.848311215275</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="I34" s="3">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>45310.84868829861</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>45310.849030868056</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>45310.849390787036</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="I37" s="3">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>45310.84983133102</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>3.32</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>45310.85022417824</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>45310.85091245371</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2.61</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>45310.85298510417</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>5.67</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>45310.85338159722</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>45310.853709675925</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2.78</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>45310.85416912037</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>45310.85453667824</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3.16</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>45310.8548771875</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>45310.90115288194</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2.33</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>45310.90153377315</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>45310.9019346412</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2.33</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>45310.902454062496</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I50" s="3">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>45310.90283431713</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>45310.903148321755</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1.47</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>45310.903484571754</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>45310.9038325</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>45310.9043178125</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I55" s="3">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>45310.90465538195</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>3.47</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>45310.904924525465</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>45310.9052631713</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4.21</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>45310.90562453704</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>45310.905974189816</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1.11</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>45310.9063716088</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>45310.906764872685</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>45310.907101006946</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>2.2</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>45310.907819872686</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>45310.908307777776</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>2.61</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>45310.90860855324</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>45310.90894263889</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1.975</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>45310.90929885417</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>45310.90965369213</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="I69" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>45310.91002763889</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>45310.9104271875</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I71" s="3">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>45310.9115056713</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>45310.911946238426</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="I73" s="3">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>45310.91236087963</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1.11</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>45310.9127609375</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="I75" s="3">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>45310.913121018515</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>45310.913510439816</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H77" s="3">
+        <v>1.41</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>45310.913978854165</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G78" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H78" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>45310.91431578704</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G79" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H79" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="I79" s="3">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2">
+        <v>45310.91484577546</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G80" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H80" s="3">
+        <v>2.17</v>
+      </c>
+      <c r="I80" s="3">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>45310.91538071759</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="I81" s="3">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>45310.915730312496</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F82" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G82" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>45310.916372569445</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2.37</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>45310.916765601854</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F84" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G84" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H84" s="3">
+        <v>2.59</v>
+      </c>
+      <c r="I84" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>45310.91724041667</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H85" s="3">
+        <v>1.13</v>
+      </c>
+      <c r="I85" s="3">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>45310.91758203704</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>1.77</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>45310.91793664352</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H87" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="I87" s="3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>45310.91840322917</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D88" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H88" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I88" s="3">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>45310.91883246528</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>45310.919194745366</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F90" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>4.4</v>
+      </c>
+      <c r="I90" s="3">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>45310.91948643519</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>2.62</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>45310.942153553246</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="I92" s="3">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>45310.94247601852</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="I93" s="3">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>45310.942838449075</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="I94" s="3">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>45310.943425219906</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D95" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G95" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H95" s="3">
+        <v>3.24</v>
+      </c>
+      <c r="I95" s="3">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>45310.94374018519</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I96" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>45310.94402995371</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D97" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F97" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H97" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I97" s="3">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>45310.94441115741</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D98" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F98" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G98" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H98" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="I98" s="3">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>45310.94501231481</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D99" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F99" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G99" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H99" s="3">
+        <v>2.49</v>
+      </c>
+      <c r="I99" s="3">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>45310.945383831015</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>45310.94580346065</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D101" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>45310.94619472222</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>45310.94659211805</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D103" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F103" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G103" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H103" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="I103" s="3">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>45310.94765126157</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E104" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F104" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G104" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H104" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="I104" s="3">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2">
+        <v>45310.94799559028</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D105" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F105" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H105" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="I105" s="3">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2">
+        <v>45310.94831849537</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D106" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E106" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F106" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G106" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H106" s="3">
+        <v>2.55</v>
+      </c>
+      <c r="I106" s="3">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2">
+        <v>45310.94881998842</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E107" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F107" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G107" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H107" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="I107" s="3">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2">
+        <v>45310.94913175926</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D108" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F108" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H108" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="I108" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2">
+        <v>45310.949488275466</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D109" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F109" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G109" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H109" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="I109" s="3">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2">
+        <v>45310.9508125</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D110" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E110" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F110" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G110" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H110" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="I110" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2">
+        <v>45310.95115517361</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E111" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F111" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G111" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H111" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="I111" s="3">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2">
+        <v>45310.95163847222</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D112" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F112" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G112" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H112" s="3">
+        <v>2.77</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2">
+        <v>45310.95198520833</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D113" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F113" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G113" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H113" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="I113" s="3">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2">
+        <v>45310.95238278936</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E114" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F114" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G114" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H114" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I114" s="3">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2">
+        <v>45310.95272371528</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E115" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F115" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G115" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H115" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="I115" s="3">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2">
+        <v>45310.95308789352</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D116" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F116" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G116" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H116" s="3">
+        <v>3.64</v>
+      </c>
+      <c r="I116" s="3">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2">
+        <v>45310.953464328704</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G117" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="H117" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="I117" s="3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2">
+        <v>45310.95377666666</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E118" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F118" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G118" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H118" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="I118" s="3">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2">
+        <v>45310.95421909722</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D119" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F119" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G119" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H119" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="I119" s="3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2">
+        <v>45310.95460243056</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E120" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F120" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G120" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H120" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="I120" s="3">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2">
+        <v>45310.95506</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D121" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F121" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G121" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H121" s="3">
+        <v>1.97</v>
+      </c>
+      <c r="I121" s="3">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2">
+        <v>45310.9553662963</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D122" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E122" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F122" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G122" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H122" s="3">
+        <v>1.82</v>
+      </c>
+      <c r="I122" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
+        <v>45310.95578788195</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F123" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G123" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H123" s="3">
+        <v>1.12</v>
+      </c>
+      <c r="I123" s="3">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2">
+        <v>45310.95619034722</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E124" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F124" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G124" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H124" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="I124" s="3">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2">
+        <v>45310.956564050924</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D125" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E125" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F125" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G125" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H125" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="I125" s="3">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2">
+        <v>45310.95689170139</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E126" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F126" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G126" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H126" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I126" s="3">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2">
+        <v>45310.95726038194</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F127" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G127" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H127" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="I127" s="3">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2">
+        <v>45310.95828688657</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D128" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F128" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G128" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H128" s="3">
+        <v>4.72</v>
+      </c>
+      <c r="I128" s="3">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2">
+        <v>45310.95868715278</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D129" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F129" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G129" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H129" s="3">
+        <v>3.41</v>
+      </c>
+      <c r="I129" s="3">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2">
+        <v>45310.95903385417</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D130" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E130" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F130" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G130" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H130" s="3">
+        <v>3.54</v>
+      </c>
+      <c r="I130" s="3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2">
+        <v>45310.95933175926</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D131" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F131" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G131" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H131" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="I131" s="3">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2">
+        <v>45310.95970103009</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D132" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E132" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F132" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G132" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H132" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="I132" s="3">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2">
+        <v>45310.96002153935</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D133" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F133" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G133" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H133" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="I133" s="3">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2">
+        <v>45310.96045409722</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E134" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F134" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G134" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H134" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="I134" s="3">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2">
+        <v>45310.96080429398</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D135" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F135" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G135" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H135" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="I135" s="3">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2">
+        <v>45310.961096643514</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D136" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F136" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G136" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H136" s="3">
+        <v>1.41</v>
+      </c>
+      <c r="I136" s="3">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2">
+        <v>45310.96160429398</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D137" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F137" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G137" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H137" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="I137" s="3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
+        <v>45310.96192394676</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F138" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G138" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H138" s="3">
+        <v>1.77</v>
+      </c>
+      <c r="I138" s="3">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>45310.96225196759</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D139" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G139" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H139" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="I139" s="3">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>45310.962579328705</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D140" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E140" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F140" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="G140" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H140" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="I140" s="3">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>45310.962926238426</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D141" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F141" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G141" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H141" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="I141" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>45310.963256076386</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E142" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F142" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G142" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="H142" s="3">
+        <v>0.07</v>
+      </c>
+      <c r="I142" s="3">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>45310.963647303244</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D143" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E143" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F143" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G143" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="H143" s="3">
+        <v>2.72</v>
+      </c>
+      <c r="I143" s="3">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>45310.96427805556</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E144" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F144" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H144" s="3">
+        <v>2.43</v>
+      </c>
+      <c r="I144" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2">
+        <v>45310.96466087963</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E145" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F145" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G145" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H145" s="3">
+        <v>0.07</v>
+      </c>
+      <c r="I145" s="3">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2">
+        <v>45310.96503203704</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D146" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E146" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F146" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G146" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H146" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="I146" s="3">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2">
+        <v>45310.96542068287</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D147" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E147" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F147" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G147" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H147" s="3">
+        <v>3.41</v>
+      </c>
+      <c r="I147" s="3">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2">
+        <v>45310.96578724537</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D148" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E148" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F148" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G148" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H148" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="I148" s="3">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2">
+        <v>45310.96610074074</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D149" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E149" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F149" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G149" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H149" s="3">
+        <v>1.77</v>
+      </c>
+      <c r="I149" s="3">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
+        <v>45310.96641418981</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D150" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E150" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F150" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G150" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H150" s="3">
+        <v>4.11</v>
+      </c>
+      <c r="I150" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2">
+        <v>45310.96674261574</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E151" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F151" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G151" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H151" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I151" s="3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>45310.96704162037</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E152" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F152" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G152" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H152" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="I152" s="3">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>45310.96735921296</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D153" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E153" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F153" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G153" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="H153" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="I153" s="3">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>45310.96766252315</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D154" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E154" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F154" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G154" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H154" s="3">
+        <v>2.37</v>
+      </c>
+      <c r="I154" s="3">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>45310.968175277776</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D155" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E155" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F155" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G155" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H155" s="3">
+        <v>2.63</v>
+      </c>
+      <c r="I155" s="3">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>45311.96720428241</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D156" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F156" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G156" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H156" s="3">
+        <v>1.52</v>
+      </c>
+      <c r="I156" s="3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>45311.96755318287</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D157" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E157" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F157" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G157" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H157" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="I157" s="3">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>45311.967884537036</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E158" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F158" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G158" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H158" s="3">
+        <v>2.96</v>
+      </c>
+      <c r="I158" s="3">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>45317.66181697916</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D159" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E159" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F159" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G159" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H159" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="I159" s="3">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>45317.66219166666</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D160" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E160" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F160" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G160" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H160" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="I160" s="3">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>45317.66264355324</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D161" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E161" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F161" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G161" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H161" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="I161" s="3">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>45317.66304305555</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D162" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E162" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F162" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G162" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H162" s="3">
+        <v>2.44</v>
+      </c>
+      <c r="I162" s="3">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>45317.66339534722</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D163" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F163" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G163" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H163" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="I163" s="3">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -6189,6 +10709,121 @@
         <v>13.0</v>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>45311.95766645833</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D206" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E206" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F206" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G206" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>45311.95789356482</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D207" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E207" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F207" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G207" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>45317.66469858796</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D208" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E208" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F208" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G208" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>45317.66498534722</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D209" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E209" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F209" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G209" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>45317.66532890046</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D210" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E210" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F210" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G210" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12039,6 +16674,180 @@
         <v>0.27</v>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>45311.961528796295</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E202" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F202" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G202" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H202" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="I202" s="3">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>45311.96192202547</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D203" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E203" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F203" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G203" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H203" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="I203" s="3">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>45317.64621811343</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D204" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E204" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F204" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G204" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H204" s="3">
+        <v>2.84</v>
+      </c>
+      <c r="I204" s="3">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>45317.64670541667</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D205" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E205" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F205" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G205" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H205" s="3">
+        <v>1.31</v>
+      </c>
+      <c r="I205" s="3">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>45317.64714010416</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D206" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E206" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F206" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G206" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H206" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I206" s="3">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>45317.64754045139</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D207" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E207" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F207" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G207" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H207" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="I207" s="3">
+        <v>2.14</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15602,6 +20411,213 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>45311.96431979167</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D155" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E155" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F155" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G155" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>45311.96458320602</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D156" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E156" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F156" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G156" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>45311.96480721065</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D157" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E157" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F157" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G157" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>45311.965043171294</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D158" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E158" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F158" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G158" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>45311.96529645834</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D159" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F159" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G159" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>45311.96559133102</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E160" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F160" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G160" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>45317.649211041666</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D161" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E161" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F161" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G161" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>45317.64958940972</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D162" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E162" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F162" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G162" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>45317.65032729167</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D163" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F163" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G163" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -40777,6 +45793,236 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>45311.07291446759</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D199" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F199" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G199" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>45311.95829422453</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E200" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F200" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G200" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>45311.95856290509</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D201" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E201" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F201" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G201" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>45311.958860231476</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D202" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E202" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F202" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G202" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>45311.95919800926</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D203" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E203" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F203" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G203" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>45317.65234767361</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D204" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E204" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F204" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G204" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>45317.65282195601</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D205" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E205" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F205" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G205" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>45317.65319979167</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D206" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E206" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F206" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G206" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>45317.65352680556</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D207" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E207" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F207" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G207" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>45317.65384655092</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D208" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E208" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F208" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G208" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -45264,6 +50510,209 @@
         <v>2.79</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>45311.072421793986</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D155" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E155" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F155" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G155" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H155" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="I155" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>45311.96871716435</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D156" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E156" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F156" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G156" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H156" s="3">
+        <v>2.08</v>
+      </c>
+      <c r="I156" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>45311.969072824075</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D157" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E157" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F157" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="G157" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H157" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I157" s="3">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>45311.969397175926</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D158" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F158" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G158" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H158" s="3">
+        <v>1.63</v>
+      </c>
+      <c r="I158" s="3">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>45317.65937260417</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E159" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F159" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G159" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H159" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="I159" s="3">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>45317.6598452662</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D160" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F160" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G160" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H160" s="3">
+        <v>1.88</v>
+      </c>
+      <c r="I160" s="3">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>45317.66033731481</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D161" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F161" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G161" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H161" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="I161" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4123" uniqueCount="213">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1225,6 +1225,259 @@
         <v>5.0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>45318.02445320602</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>45318.024987893514</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>45318.02534894676</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>45318.025684004635</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>45318.02611803241</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>45318.02653512731</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>45318.0269859838</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>45318.027293900464</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>45318.027583483796</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>45318.02794516204</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>45318.02834128472</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5973,6 +6226,35 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>45318.02287216435</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D164" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F164" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G164" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H164" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="I164" s="3">
+        <v>0.51</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16848,6 +17130,35 @@
         <v>2.14</v>
       </c>
     </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>45318.02122487269</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D208" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E208" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F208" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G208" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H208" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="I208" s="3">
+        <v>1.63</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20618,6 +20929,29 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>45318.02169546296</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D164" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F164" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G164" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -41218,6 +41552,29 @@
         <v>6.0</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>45318.022221747684</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D164" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E164" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F164" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G164" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -46023,6 +46380,29 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>45318.02058511574</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D209" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E209" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F209" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G209" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4123" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4161" uniqueCount="213">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -6255,6 +6255,122 @@
         <v>0.51</v>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>45319.08343083333</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D165" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F165" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G165" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H165" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="I165" s="3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>45319.08377931713</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D166" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F166" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G166" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H166" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="I166" s="3">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>45319.08412300926</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D167" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F167" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G167" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H167" s="3">
+        <v>0.57</v>
+      </c>
+      <c r="I167" s="3">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>45319.08472486111</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E168" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F168" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G168" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="H168" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="I168" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17159,6 +17275,93 @@
         <v>1.63</v>
       </c>
     </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>45319.077225706016</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E209" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F209" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H209" s="3">
+        <v>1.15</v>
+      </c>
+      <c r="I209" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>45319.077642881944</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D210" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E210" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F210" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G210" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H210" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="I210" s="3">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>45319.07802918981</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D211" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E211" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F211" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G211" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H211" s="3">
+        <v>3.28</v>
+      </c>
+      <c r="I211" s="3">
+        <v>1.84</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20952,6 +21155,144 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>45319.07883196759</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D165" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E165" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F165" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G165" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>45319.0791258449</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D166" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F166" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G166" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>45319.07949809028</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D167" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F167" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G167" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>45319.07994239584</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D168" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E168" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F168" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G168" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>45319.08031991898</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D169" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E169" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F169" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G169" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>45319.08073255787</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F170" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G170" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -41575,6 +41916,52 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>45319.08160996527</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D165" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F165" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G165" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>45319.081884687504</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D166" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E166" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F166" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G166" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -46403,6 +46790,98 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>45319.07524295139</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D210" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E210" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F210" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G210" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>45319.07552194444</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D211" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E211" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F211" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G211" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>45319.075815185184</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D212" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E212" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F212" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G212" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>45319.076130092595</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D213" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E213" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F213" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G213" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4289" uniqueCount="213">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1478,6 +1478,328 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>45324.85187520833</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>45324.85216510417</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>45324.852454583335</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>45324.85268921296</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>45324.85293275463</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>45324.853318043984</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>45324.85357039352</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>45324.85415814815</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>45324.85444539352</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>45324.85469724537</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>45324.85494392361</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>45324.85518118055</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>45324.85539114583</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>45324.85562459491</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20530,6 +20852,35 @@
         <v>1.64</v>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>45324.84907465278</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D218" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E218" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F218" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G218" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H218" s="3">
+        <v>2.27</v>
+      </c>
+      <c r="I218" s="3">
+        <v>0.85</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -24507,6 +24858,29 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>45324.84948069444</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D173" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F173" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G173" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -28484,6 +28858,29 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>45324.8498784838</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D173" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E173" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F173" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G173" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -33588,6 +33985,29 @@
         <v>6.0</v>
       </c>
     </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>45324.84854158565</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D222" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E222" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F222" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G222" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -43548,6 +43968,35 @@
         <v>1.48</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>45324.85047625</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D173" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E173" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F173" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G173" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H173" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="I173" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4289" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="213">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -20881,6 +20881,122 @@
         <v>0.85</v>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>45325.851599375004</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D219" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E219" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F219" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G219" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H219" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="I219" s="3">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2">
+        <v>45325.85190707176</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D220" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E220" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F220" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G220" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H220" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="I220" s="3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2">
+        <v>45325.85223048611</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D221" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E221" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F221" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G221" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H221" s="3">
+        <v>1.04</v>
+      </c>
+      <c r="I221" s="3">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>45325.85253488426</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D222" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E222" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F222" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G222" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H222" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="I222" s="3">
+        <v>0.56</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -24881,6 +24997,144 @@
         <v>7.0</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>45325.85290467592</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D174" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E174" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F174" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G174" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>45325.85316569444</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E175" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F175" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G175" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>45325.853459571765</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D176" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E176" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F176" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G176" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>45325.85368972222</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D177" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E177" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F177" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G177" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>45325.85392724537</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D178" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E178" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F178" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G178" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>45325.854177500005</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D179" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F179" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G179" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -28881,6 +29135,52 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>45325.854626203705</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D174" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E174" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F174" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G174" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>45325.85487787037</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E175" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F175" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G175" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -34008,6 +34308,98 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>45325.85042072917</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D223" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E223" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F223" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G223" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>45325.85066960649</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D224" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E224" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F224" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G224" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>45325.8508875463</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D225" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E225" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F225" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G225" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>45325.85114219907</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D226" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F226" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G226" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -38959,6 +39351,64 @@
         <v>0.55</v>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>45325.85543969907</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D171" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E171" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F171" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G171" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H171" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="I171" s="3">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>45325.856006435184</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D172" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F172" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="G172" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H172" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="I172" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -43997,6 +44447,35 @@
         <v>1.8</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>45325.85654587963</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D174" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F174" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G174" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H174" s="3">
+        <v>3.08</v>
+      </c>
+      <c r="I174" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -49078,6 +49557,121 @@
         <v>5.0</v>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" s="2">
+        <v>45325.84849802083</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D221" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E221" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F221" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G221" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>45325.84876508102</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D222" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E222" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F222" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G222" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>45325.84927896991</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D223" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E223" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F223" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G223" s="3">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>45325.849529687504</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D224" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E224" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F224" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G224" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>45325.84974884259</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D225" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E225" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F225" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G225" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="213">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1800,6 +1800,213 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>45333.06396483796</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>45333.06423567129</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>45333.06449106481</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>45333.06476872685</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>45333.06505878472</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>45333.065327627315</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>45333.06560346065</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>45333.06593865741</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>45333.06619358796</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20997,6 +21204,412 @@
         <v>0.56</v>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>45330.69735028935</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D223" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E223" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F223" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G223" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H223" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I223" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>45330.69786731481</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E224" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F224" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G224" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H224" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="I224" s="3">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>45330.69843546297</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D225" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E225" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F225" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G225" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H225" s="3">
+        <v>2.27</v>
+      </c>
+      <c r="I225" s="3">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>45330.69908983796</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D226" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F226" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G226" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H226" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="I226" s="3">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>45330.69980822917</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D227" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E227" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F227" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G227" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H227" s="3">
+        <v>2.71</v>
+      </c>
+      <c r="I227" s="3">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>45332.03139456018</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D228" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E228" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F228" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G228" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H228" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="I228" s="3">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>45333.032271585646</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D229" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E229" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F229" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G229" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H229" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="I229" s="3">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>45333.03260878472</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D230" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E230" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F230" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G230" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H230" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="I230" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>45333.03296982639</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D231" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E231" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F231" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G231" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H231" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="I231" s="3">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>45333.92605418981</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D232" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E232" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F232" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G232" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H232" s="3">
+        <v>2.32</v>
+      </c>
+      <c r="I232" s="3">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>45333.926374456016</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D233" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E233" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F233" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G233" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H233" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="I233" s="3">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>45333.92671138889</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E234" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F234" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G234" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H234" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="I234" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>45333.926999166666</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D235" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E235" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F235" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G235" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H235" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="I235" s="3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>45333.927414143516</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D236" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E236" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F236" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G236" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H236" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="I236" s="3">
+        <v>0.59</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -25135,6 +25748,282 @@
         <v>7.0</v>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>45330.70088611111</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D180" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E180" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F180" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G180" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>45330.70137759259</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D181" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F181" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G181" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>45330.701881064815</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D182" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F182" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G182" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>45332.03176932871</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D183" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F183" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G183" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>45333.03339993056</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D184" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F184" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G184" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>45333.033686689814</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F185" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G185" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>45333.03391131945</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D186" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E186" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F186" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G186" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>45333.03417289352</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D187" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E187" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F187" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G187" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>45333.03442556713</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D188" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E188" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F188" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G188" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>45333.0346778588</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D189" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E189" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F189" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G189" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>45333.928057708334</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D190" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F190" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G190" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>45333.928293634264</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D191" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E191" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F191" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G191" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -29181,6 +30070,351 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>45330.703188287036</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D176" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E176" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F176" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G176" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>45330.70358706018</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D177" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E177" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F177" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G177" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>45330.70441309028</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D178" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E178" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F178" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G178" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>45330.704816006946</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D179" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F179" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G179" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>45330.70521701389</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F180" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G180" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>45330.705542083335</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D181" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F181" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G181" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>45332.03217075231</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D182" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F182" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G182" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>45333.035098981476</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D183" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E183" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F183" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G183" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>45333.03533861111</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D184" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F184" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G184" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>45333.92874497685</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D185" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E185" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F185" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G185" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>45333.92900746528</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D186" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E186" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F186" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G186" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>45333.92924943287</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F187" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G187" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>45333.92956164352</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D188" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E188" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F188" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G188" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>45333.929801087965</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D189" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E189" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F189" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G189" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>45333.93005456019</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D190" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E190" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F190" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G190" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -34400,6 +35634,328 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>45330.70798568287</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D227" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E227" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F227" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G227" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>45330.70830341435</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D228" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E228" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F228" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G228" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>45330.70876814815</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D229" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E229" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F229" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G229" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>45330.709198888886</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D230" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E230" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F230" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G230" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>45330.709544756945</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D231" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E231" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F231" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G231" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>45332.0308941088</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D232" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E232" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F232" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G232" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>45333.030711354164</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D233" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E233" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F233" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G233" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>45333.03101643518</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D234" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E234" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F234" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G234" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>45333.031331481485</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D235" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E235" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F235" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G235" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>45333.031673310186</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D236" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E236" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F236" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G236" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>45333.924247766205</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D237" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E237" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F237" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G237" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>45333.9245172338</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D238" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E238" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F238" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G238" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>45333.92475481481</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D239" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E239" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F239" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G239" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>45333.92507707176</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D240" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E240" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F240" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G240" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -39409,6 +40965,383 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>45330.7111205324</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D173" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E173" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F173" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G173" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H173" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="I173" s="3">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>45330.71160112269</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D174" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E174" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F174" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G174" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="H174" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I174" s="3">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>45330.71205988426</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D175" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E175" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F175" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G175" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H175" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="I175" s="3">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>45330.71281917824</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D176" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E176" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F176" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G176" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H176" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="I176" s="3">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>45330.71326674768</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D177" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E177" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F177" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G177" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H177" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="I177" s="3">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>45330.71373349537</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D178" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F178" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G178" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H178" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I178" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>45332.032609699076</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D179" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F179" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G179" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H179" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I179" s="3">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>45333.03587936342</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D180" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E180" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F180" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G180" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H180" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="I180" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>45333.036258368054</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D181" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F181" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G181" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H181" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="I181" s="3">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>45333.036682314814</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D182" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F182" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G182" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H182" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="I182" s="3">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>45333.93074098379</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D183" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F183" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G183" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H183" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="I183" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>45333.93107951389</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D184" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F184" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G184" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H184" s="3">
+        <v>2.43</v>
+      </c>
+      <c r="I184" s="3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>45333.931896608796</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D185" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E185" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F185" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G185" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="H185" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="I185" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -44476,6 +46409,470 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>45330.71504471065</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D175" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E175" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F175" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H175" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="I175" s="3">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>45330.71561508102</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D176" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E176" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F176" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G176" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H176" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I176" s="3">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>45330.71591974537</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D177" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E177" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F177" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G177" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H177" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="I177" s="3">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>45330.716401087964</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D178" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E178" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F178" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G178" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H178" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="I178" s="3">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>45330.716825254625</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D179" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E179" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F179" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G179" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H179" s="3">
+        <v>2.38</v>
+      </c>
+      <c r="I179" s="3">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>45330.717488194445</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E180" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F180" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G180" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H180" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="I180" s="3">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>45330.71793303241</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D181" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E181" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F181" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G181" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H181" s="3">
+        <v>2.36</v>
+      </c>
+      <c r="I181" s="3">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>45332.03306971065</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D182" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F182" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G182" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="H182" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="I182" s="3">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>45333.03721219907</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D183" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E183" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F183" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G183" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H183" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="I183" s="3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>45333.037518564815</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D184" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F184" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G184" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H184" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="I184" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>45333.03785114583</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D185" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E185" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F185" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G185" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H185" s="3">
+        <v>2.36</v>
+      </c>
+      <c r="I185" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>45333.93357116898</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D186" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E186" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F186" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G186" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H186" s="3">
+        <v>2.43</v>
+      </c>
+      <c r="I186" s="3">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>45333.933874282404</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D187" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F187" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G187" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H187" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="I187" s="3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>45333.93423373843</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D188" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E188" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F188" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G188" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H188" s="3">
+        <v>1.97</v>
+      </c>
+      <c r="I188" s="3">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>45333.93466033565</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D189" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E189" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F189" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G189" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H189" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="I189" s="3">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>45333.935246458335</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D190" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E190" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F190" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G190" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H190" s="3">
+        <v>3.19</v>
+      </c>
+      <c r="I190" s="3">
+        <v>0.24</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -49672,6 +52069,282 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>45330.71910362269</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D226" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E226" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F226" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G226" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>45330.71964269676</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D227" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E227" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F227" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G227" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>45330.719985648146</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D228" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F228" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G228" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>45330.72028072916</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D229" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E229" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F229" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G229" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>45330.72063784722</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D230" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E230" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F230" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G230" s="3">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>45333.028410046296</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D231" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E231" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F231" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G231" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>45333.0286603125</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D232" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E232" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F232" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G232" s="3">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>45333.02896060185</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D233" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E233" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F233" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G233" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>45333.029317673616</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D234" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E234" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F234" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G234" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>45333.02957079861</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D235" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E235" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F235" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G235" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>45333.02983024306</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D236" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E236" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F236" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G236" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>45333.03013530093</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D237" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E237" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F237" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G237" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4997" uniqueCount="213">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2007,6 +2007,397 @@
         <v>5.0</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>45345.931528553236</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>45345.93190549768</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>45345.93225107639</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>45345.93252475694</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>45345.93286450232</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>45345.9332359838</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>45345.93357866898</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>45345.93387256944</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>45345.93417202546</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>45345.934653495366</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>45345.93492142361</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>45345.93529958333</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>45345.93567076389</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>45345.93607427084</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>45345.936348206014</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>45345.93666535879</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>45345.936911122684</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -21610,6 +22001,1021 @@
         <v>0.59</v>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>45334.79930997685</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D237" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E237" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F237" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G237" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H237" s="3">
+        <v>2.17</v>
+      </c>
+      <c r="I237" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>45338.033736956015</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D238" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E238" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F238" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G238" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H238" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="I238" s="3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>45338.901827951384</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D239" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E239" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F239" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G239" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H239" s="3">
+        <v>1.66</v>
+      </c>
+      <c r="I239" s="3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>45338.902524641206</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D240" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E240" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F240" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="G240" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H240" s="3">
+        <v>4.1</v>
+      </c>
+      <c r="I240" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>45340.087044872686</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D241" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E241" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F241" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G241" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H241" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="I241" s="3">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>45340.08742758102</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D242" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E242" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F242" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G242" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H242" s="3">
+        <v>0.57</v>
+      </c>
+      <c r="I242" s="3">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>45340.08773021991</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D243" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E243" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F243" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G243" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H243" s="3">
+        <v>4.31</v>
+      </c>
+      <c r="I243" s="3">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>45340.95588673611</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D244" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E244" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F244" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G244" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H244" s="3">
+        <v>1.12</v>
+      </c>
+      <c r="I244" s="3">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>45340.95627892361</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D245" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E245" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F245" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G245" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H245" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="I245" s="3">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>45340.95674340278</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D246" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E246" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F246" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G246" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H246" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="I246" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>45340.95716571759</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D247" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E247" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F247" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G247" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H247" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="I247" s="3">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>45340.95748131945</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D248" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E248" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F248" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G248" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H248" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="I248" s="3">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>45345.921100127314</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D249" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E249" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F249" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G249" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H249" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="I249" s="3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2">
+        <v>45345.92144571759</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E250" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F250" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G250" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H250" s="3">
+        <v>1.59</v>
+      </c>
+      <c r="I250" s="3">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>45347.08649883102</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D251" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E251" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F251" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G251" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H251" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="I251" s="3">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2">
+        <v>45347.08704583334</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D252" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E252" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F252" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G252" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="H252" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="I252" s="3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2">
+        <v>45347.08758576389</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D253" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E253" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F253" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G253" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H253" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="I253" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2">
+        <v>45348.936266516204</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D254" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E254" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F254" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G254" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H254" s="3">
+        <v>2.17</v>
+      </c>
+      <c r="I254" s="3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2">
+        <v>45348.93657532407</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D255" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E255" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F255" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G255" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H255" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I255" s="3">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>45348.93706480324</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D256" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E256" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F256" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G256" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="H256" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="I256" s="3">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>45348.93732532408</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D257" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E257" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F257" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G257" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H257" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="I257" s="3">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>45348.93765561342</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D258" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E258" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F258" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G258" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H258" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="I258" s="3">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2">
+        <v>45348.93793905093</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D259" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E259" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F259" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G259" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H259" s="3">
+        <v>2.85</v>
+      </c>
+      <c r="I259" s="3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2">
+        <v>45353.08766228009</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D260" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E260" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="F260" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G260" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="H260" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="I260" s="3">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2">
+        <v>45353.08805825231</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D261" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E261" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F261" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G261" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H261" s="3">
+        <v>2.05</v>
+      </c>
+      <c r="I261" s="3">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2">
+        <v>45353.08844582176</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D262" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E262" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F262" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G262" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H262" s="3">
+        <v>1.33</v>
+      </c>
+      <c r="I262" s="3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2">
+        <v>45353.96726356482</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D263" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E263" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F263" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G263" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H263" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="I263" s="3">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2">
+        <v>45353.96761288194</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D264" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E264" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F264" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G264" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H264" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="I264" s="3">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2">
+        <v>45353.96794945602</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D265" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E265" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F265" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G265" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H265" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I265" s="3">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2">
+        <v>45359.552072754625</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D266" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E266" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F266" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G266" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="H266" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I266" s="3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2">
+        <v>45359.55262886574</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D267" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E267" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F267" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G267" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H267" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="I267" s="3">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2">
+        <v>45359.553065925924</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D268" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E268" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F268" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G268" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H268" s="3">
+        <v>1.33</v>
+      </c>
+      <c r="I268" s="3">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2">
+        <v>45359.55383858796</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D269" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E269" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F269" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G269" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H269" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="I269" s="3">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2">
+        <v>45359.55423462963</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D270" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E270" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F270" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G270" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H270" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="I270" s="3">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2">
+        <v>45359.55458480324</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D271" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E271" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F271" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G271" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H271" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="I271" s="3">
+        <v>0.83</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -26024,6 +27430,627 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>45338.90316581019</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D192" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E192" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F192" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G192" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>45340.088296875</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D193" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E193" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F193" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G193" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>45340.08851784722</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D194" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E194" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F194" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G194" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>45340.08875069444</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D195" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E195" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F195" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G195" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>45340.088985243056</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D196" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E196" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F196" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G196" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>45340.08921184028</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D197" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E197" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F197" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G197" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>45340.089493935186</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D198" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E198" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F198" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G198" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>45340.96587716435</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D199" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E199" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F199" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G199" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>45340.96617359953</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D200" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E200" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F200" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G200" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>45345.92238159722</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D201" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E201" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F201" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G201" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>45347.088076875</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D202" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E202" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F202" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G202" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>45347.088401886576</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D203" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E203" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F203" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G203" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>45347.088614884255</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E204" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F204" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G204" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>45347.08892734954</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D205" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E205" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F205" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G205" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>45347.08919789352</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D206" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E206" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F206" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G206" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>45348.94130037037</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D207" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E207" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F207" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G207" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>45348.941503090275</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D208" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E208" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F208" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G208" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>45348.941741296294</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D209" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E209" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F209" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G209" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>45353.089320960644</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D210" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E210" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F210" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G210" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>45353.96857702546</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D211" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E211" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F211" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G211" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>45353.96889413195</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D212" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E212" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F212" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G212" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>45353.9691809838</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D213" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E213" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F213" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G213" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>45353.96956077546</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D214" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E214" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="F214" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G214" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>45353.96995953703</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D215" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E215" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F215" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G215" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>45353.97037944444</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D216" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E216" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F216" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G216" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2">
+        <v>45359.55595581018</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D217" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E217" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F217" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G217" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>45359.55620744213</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D218" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E218" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F218" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G218" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30415,6 +32442,650 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>45338.90382054399</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D191" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E191" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F191" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G191" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>45340.0899712963</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D192" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E192" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F192" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G192" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>45340.090302384255</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D193" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E193" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F193" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G193" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>45340.96699789352</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D194" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E194" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F194" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G194" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>45340.967410937505</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D195" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E195" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F195" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G195" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>45340.96776179398</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D196" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E196" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F196" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G196" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>45340.96800584491</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D197" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E197" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F197" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G197" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>45340.96826194444</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D198" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E198" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F198" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G198" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>45340.968555810185</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D199" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F199" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G199" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>45345.92353408565</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D200" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E200" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F200" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G200" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>45347.089648090274</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D201" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E201" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F201" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G201" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>45347.089908634254</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D202" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E202" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F202" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G202" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>45348.94246162037</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D203" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E203" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F203" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G203" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>45348.94268864584</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E204" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F204" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G204" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>45348.94291837963</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E205" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F205" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G205" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>45348.94324148148</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D206" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E206" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F206" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G206" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>45348.94348616898</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D207" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E207" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F207" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>45348.94370275463</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D208" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E208" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F208" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G208" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>45353.090350196755</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D209" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E209" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F209" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G209" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>45353.97082112268</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D210" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E210" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F210" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G210" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>45353.971147696764</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D211" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E211" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F211" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G211" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>45359.55801868056</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D212" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E212" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F212" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G212" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>45359.5582631713</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D213" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E213" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F213" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G213" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>45359.55849186343</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D214" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E214" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F214" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G214" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>45359.55894798611</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D215" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E215" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F215" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G215" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>45359.55939945602</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D216" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E216" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F216" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G216" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2">
+        <v>45359.55975072917</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D217" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E217" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F217" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G217" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>45359.56011655093</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D218" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E218" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F218" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G218" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -35956,6 +38627,696 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>45334.79884351852</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D241" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E241" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F241" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G241" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>45338.901218784726</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D242" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E242" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F242" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G242" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>45340.085665949075</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D243" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E243" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F243" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G243" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>45340.085914745374</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D244" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E244" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F244" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G244" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>45340.086148912036</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D245" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E245" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F245" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G245" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>45340.086432881944</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D246" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E246" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F246" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G246" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>45340.95120957176</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D247" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E247" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F247" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G247" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>45340.95147616898</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D248" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E248" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F248" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G248" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>45340.95173768519</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D249" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E249" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F249" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G249" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2">
+        <v>45340.95197219907</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D250" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E250" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F250" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G250" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>45345.92490642361</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D251" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E251" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F251" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G251" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2">
+        <v>45345.925221412035</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D252" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E252" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F252" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G252" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2">
+        <v>45347.08500643518</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D253" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E253" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F253" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G253" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2">
+        <v>45347.08537315972</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D254" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E254" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F254" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G254" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2">
+        <v>45347.08562324074</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D255" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E255" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F255" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G255" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>45348.93455179398</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D256" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E256" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F256" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G256" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>45348.93478915509</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D257" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E257" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F257" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G257" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>45348.93504571759</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D258" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E258" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F258" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G258" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2">
+        <v>45348.93535298611</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D259" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E259" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F259" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G259" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2">
+        <v>45348.9356096875</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D260" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E260" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F260" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G260" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2">
+        <v>45353.086836145834</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D261" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E261" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F261" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G261" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2">
+        <v>45353.9651284838</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D262" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E262" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F262" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G262" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2">
+        <v>45353.965449641204</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D263" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E263" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F263" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G263" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2">
+        <v>45353.965956851855</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D264" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E264" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F264" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G264" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2">
+        <v>45353.966384363426</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D265" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E265" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F265" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G265" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2">
+        <v>45359.56148880787</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D266" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E266" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F266" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G266" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2">
+        <v>45359.56171165509</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D267" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E267" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F267" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G267" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2">
+        <v>45359.56193383102</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D268" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E268" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F268" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G268" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2">
+        <v>45359.56212785879</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D269" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E269" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F269" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G269" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2">
+        <v>45359.56238721065</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D270" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E270" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F270" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G270" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -41342,6 +44703,844 @@
         <v>0.99</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>45334.80523533565</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D186" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E186" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F186" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G186" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H186" s="3">
+        <v>1.61</v>
+      </c>
+      <c r="I186" s="3">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>45338.033102245376</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D187" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E187" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F187" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G187" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H187" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="I187" s="3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>45338.904434525466</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D188" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E188" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F188" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G188" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H188" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="I188" s="3">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>45340.09079120371</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D189" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E189" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F189" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G189" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H189" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="I189" s="3">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>45340.09115479166</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D190" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F190" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G190" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H190" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="I190" s="3">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>45340.091576875</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D191" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E191" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F191" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G191" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H191" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="I191" s="3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>45340.97180273148</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D192" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E192" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F192" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G192" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H192" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="I192" s="3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>45340.97212868056</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D193" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E193" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F193" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G193" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H193" s="3">
+        <v>3.62</v>
+      </c>
+      <c r="I193" s="3">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>45340.972493506946</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D194" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E194" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F194" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G194" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H194" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I194" s="3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>45340.97294302083</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D195" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E195" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F195" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G195" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H195" s="3">
+        <v>2.94</v>
+      </c>
+      <c r="I195" s="3">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>45345.9263016551</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D196" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E196" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F196" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G196" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H196" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I196" s="3">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>45345.92678357639</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D197" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E197" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F197" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G197" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H197" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="I197" s="3">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>45347.09050484953</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D198" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E198" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F198" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G198" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H198" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="I198" s="3">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>45347.09080497685</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D199" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E199" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F199" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G199" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H199" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="I199" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>45347.09114417824</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E200" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F200" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G200" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H200" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="I200" s="3">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>45348.93878667824</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D201" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E201" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F201" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G201" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H201" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="I201" s="3">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>45348.93916555555</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D202" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E202" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F202" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G202" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H202" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="I202" s="3">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>45348.93947327546</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D203" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E203" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F203" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G203" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H203" s="3">
+        <v>3.49</v>
+      </c>
+      <c r="I203" s="3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>45348.939780925924</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D204" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E204" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F204" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G204" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H204" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="I204" s="3">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>45348.9401099074</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E205" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F205" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G205" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H205" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="I205" s="3">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>45353.09154533564</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D206" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E206" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F206" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G206" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H206" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="I206" s="3">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>45353.971651712964</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D207" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E207" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F207" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G207" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H207" s="3">
+        <v>1.33</v>
+      </c>
+      <c r="I207" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>45353.972017569446</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D208" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E208" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F208" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G208" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H208" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="I208" s="3">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>45353.97234771991</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D209" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E209" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F209" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G209" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H209" s="3">
+        <v>2.54</v>
+      </c>
+      <c r="I209" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>45359.56321734954</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D210" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F210" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G210" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H210" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="I210" s="3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>45359.56356621528</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D211" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E211" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F211" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G211" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H211" s="3">
+        <v>1.11</v>
+      </c>
+      <c r="I211" s="3">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>45359.564293483796</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D212" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E212" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F212" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G212" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H212" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="I212" s="3">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>45359.56476818287</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D213" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E213" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F213" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G213" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H213" s="3">
+        <v>2.81</v>
+      </c>
+      <c r="I213" s="3">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>45359.565379548614</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D214" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E214" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F214" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G214" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H214" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="I214" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -46873,6 +51072,760 @@
         <v>0.24</v>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>45338.90680483796</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D191" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E191" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F191" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="G191" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H191" s="3">
+        <v>3.91</v>
+      </c>
+      <c r="I191" s="3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>45340.09221690972</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D192" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E192" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F192" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G192" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="H192" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="I192" s="3">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>45340.09256039352</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D193" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E193" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F193" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G193" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H193" s="3">
+        <v>2.44</v>
+      </c>
+      <c r="I193" s="3">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>45340.09346957176</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D194" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E194" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F194" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G194" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H194" s="3">
+        <v>1.13</v>
+      </c>
+      <c r="I194" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>45340.09378947917</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D195" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E195" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F195" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G195" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H195" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="I195" s="3">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>45340.97350976852</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D196" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E196" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F196" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G196" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H196" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="I196" s="3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>45340.97407196759</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D197" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E197" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F197" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G197" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H197" s="3">
+        <v>1.09</v>
+      </c>
+      <c r="I197" s="3">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>45340.974367476854</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D198" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E198" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F198" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G198" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H198" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="I198" s="3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>45340.974695763885</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D199" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F199" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="G199" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H199" s="3">
+        <v>3.87</v>
+      </c>
+      <c r="I199" s="3">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>45345.928354918986</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D200" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E200" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F200" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G200" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H200" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="I200" s="3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>45347.09188039352</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D201" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E201" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F201" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G201" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H201" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="I201" s="3">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>45347.09221611111</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D202" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E202" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="F202" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G202" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H202" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="I202" s="3">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>45347.09259314815</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D203" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E203" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F203" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G203" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="H203" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="I203" s="3">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>45348.94484304398</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D204" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E204" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F204" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G204" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="H204" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="I204" s="3">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>45348.94534578704</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E205" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F205" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G205" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H205" s="3">
+        <v>1.04</v>
+      </c>
+      <c r="I205" s="3">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>45348.945677951386</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D206" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E206" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F206" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G206" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H206" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="I206" s="3">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>45348.94596280092</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D207" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E207" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F207" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G207" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H207" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="I207" s="3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>45348.94625497685</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D208" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E208" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F208" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G208" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="H208" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="I208" s="3">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>45353.9729028125</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D209" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E209" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F209" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G209" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H209" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="I209" s="3">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>45353.973298784724</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D210" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E210" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F210" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G210" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H210" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="I210" s="3">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>45353.97381599537</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D211" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E211" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F211" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G211" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H211" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="I211" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>45359.56637526621</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D212" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E212" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F212" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G212" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H212" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="I212" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>45359.56669989583</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D213" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E213" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F213" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G213" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H213" s="3">
+        <v>1.66</v>
+      </c>
+      <c r="I213" s="3">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>45359.56700052084</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D214" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E214" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F214" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G214" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H214" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="I214" s="3">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>45359.56734090278</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D215" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E215" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F215" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G215" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H215" s="3">
+        <v>2.24</v>
+      </c>
+      <c r="I215" s="3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>45359.56759673611</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D216" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E216" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F216" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G216" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H216" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="I216" s="3">
+        <v>2.13</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -52345,6 +57298,765 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>45334.79832181713</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D238" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E238" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F238" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G238" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>45338.03117011574</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D239" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E239" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="F239" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G239" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>45338.03148077546</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D240" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E240" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F240" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G240" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>45340.08373248843</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D241" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E241" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F241" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G241" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>45340.083997141206</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D242" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E242" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F242" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G242" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>45340.0842456713</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D243" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E243" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F243" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G243" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>45340.084500833334</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D244" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E244" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F244" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G244" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>45340.08473263889</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D245" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E245" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F245" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G245" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>45340.084984664354</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D246" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E246" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F246" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G246" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>45340.0852215625</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D247" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E247" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F247" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G247" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>45340.950569548615</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D248" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E248" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F248" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G248" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>45340.95081527778</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D249" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E249" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F249" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G249" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2">
+        <v>45345.92960665509</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D250" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E250" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F250" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G250" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>45345.92984626157</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D251" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E251" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F251" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G251" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2">
+        <v>45345.930137881944</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D252" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E252" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F252" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G252" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2">
+        <v>45347.08311467593</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D253" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E253" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F253" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G253" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2">
+        <v>45347.08336101852</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D254" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E254" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F254" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G254" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2">
+        <v>45347.083646666666</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D255" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E255" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F255" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G255" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>45347.08398613426</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D256" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E256" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F256" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G256" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>45347.08426358797</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D257" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E257" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F257" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G257" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>45347.0845240625</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D258" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E258" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F258" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G258" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2">
+        <v>45348.93316672454</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D259" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E259" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F259" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G259" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2">
+        <v>45348.93365046296</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D260" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E260" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F260" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G260" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2">
+        <v>45353.96180659722</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D261" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E261" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F261" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G261" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2">
+        <v>45353.96211679398</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D262" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E262" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F262" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G262" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2">
+        <v>45353.96244699074</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D263" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E263" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F263" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G263" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2">
+        <v>45353.96286010416</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D264" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E264" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F264" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G264" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2">
+        <v>45353.96325350694</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D265" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E265" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F265" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G265" s="3">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2">
+        <v>45353.96376236111</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D266" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E266" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F266" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G266" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2">
+        <v>45353.96415670139</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D267" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E267" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F267" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G267" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2">
+        <v>45359.56813609954</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D268" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E268" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F268" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G268" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2">
+        <v>45359.568452673615</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D269" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E269" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F269" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="G269" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2">
+        <v>45359.569009224535</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D270" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E270" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="F270" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G270" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3658" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="142">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -9152,6 +9152,412 @@
         <v>1.36</v>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" s="3">
+        <v>45382.401194074075</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D291" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E291" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F291" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G291" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H291" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="I291" s="4">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="3">
+        <v>45382.40155866898</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D292" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E292" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F292" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G292" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H292" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="I292" s="4">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="3">
+        <v>45382.40198042824</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D293" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E293" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F293" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G293" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H293" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="I293" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="3">
+        <v>45382.40235395833</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D294" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E294" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F294" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G294" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H294" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="I294" s="4">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="3">
+        <v>45382.40282166666</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D295" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E295" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F295" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G295" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H295" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="I295" s="4">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="3">
+        <v>45388.39439435185</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D296" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E296" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F296" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G296" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H296" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="I296" s="4">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="3">
+        <v>45388.39482097222</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D297" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E297" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F297" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G297" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H297" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="I297" s="4">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="3">
+        <v>45388.395182685184</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D298" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E298" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F298" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G298" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H298" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="I298" s="4">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="3">
+        <v>45388.395526712964</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D299" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E299" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F299" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G299" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H299" s="4">
+        <v>1.82</v>
+      </c>
+      <c r="I299" s="4">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="3">
+        <v>45388.39592196759</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D300" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E300" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F300" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G300" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H300" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="I300" s="4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="3">
+        <v>45388.396374606484</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E301" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F301" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G301" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H301" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="I301" s="4">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="3">
+        <v>45388.970871157406</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D302" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E302" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F302" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G302" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H302" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="I302" s="4">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="3">
+        <v>45388.971201712964</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D303" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E303" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F303" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G303" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H303" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="I303" s="4">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="3">
+        <v>45388.97153974537</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D304" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E304" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F304" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G304" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H304" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="I304" s="4">
+        <v>2.16</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -14601,6 +15007,374 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" s="3">
+        <v>45382.403307615736</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D237" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E237" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F237" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G237" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="3">
+        <v>45382.403670011576</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D238" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E238" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F238" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="G238" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="3">
+        <v>45382.40404959491</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D239" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E239" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F239" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G239" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="3">
+        <v>45382.40465372685</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D240" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E240" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F240" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="G240" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="3">
+        <v>45382.404933645834</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D241" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E241" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F241" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G241" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3">
+        <v>45382.405292337964</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D242" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E242" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F242" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G242" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3">
+        <v>45388.39822815973</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D243" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E243" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F243" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="G243" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="3">
+        <v>45388.398522777774</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D244" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E244" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F244" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G244" s="4">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3">
+        <v>45388.398741296296</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D245" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E245" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F245" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G245" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="3">
+        <v>45388.39901945602</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D246" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E246" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F246" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G246" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="3">
+        <v>45388.97190829861</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D247" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E247" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F247" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G247" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="3">
+        <v>45388.97215768519</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D248" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E248" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F248" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G248" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="3">
+        <v>45388.97240920139</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D249" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E249" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F249" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G249" s="4">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3">
+        <v>45388.972704687505</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D250" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E250" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F250" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G250" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="3">
+        <v>45388.972938391205</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D251" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E251" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F251" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G251" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="3">
+        <v>45388.973221099535</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D252" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E252" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F252" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G252" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20073,6 +20847,259 @@
         <v>5.0</v>
       </c>
     </row>
+    <row r="238">
+      <c r="A238" s="3">
+        <v>45382.4061152662</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D238" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E238" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F238" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G238" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="3">
+        <v>45382.40651340278</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D239" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E239" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F239" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G239" s="4">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="3">
+        <v>45388.39975349537</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D240" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E240" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F240" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G240" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="3">
+        <v>45388.40002407407</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D241" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E241" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F241" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G241" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3">
+        <v>45388.40029641204</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D242" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E242" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F242" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="G242" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3">
+        <v>45388.40058094908</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D243" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E243" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F243" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G243" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="3">
+        <v>45388.400844375</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D244" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E244" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F244" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G244" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3">
+        <v>45388.4012915625</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D245" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E245" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F245" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G245" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="3">
+        <v>45388.4016055324</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D246" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E246" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F246" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G246" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="3">
+        <v>45388.97365332176</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D247" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E247" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F247" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G247" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="3">
+        <v>45388.97398847222</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D248" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E248" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F248" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="G248" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -26787,6 +27814,236 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" s="3">
+        <v>45382.39963039352</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E292" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F292" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G292" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="3">
+        <v>45382.400055289356</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D293" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E293" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F293" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G293" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="3">
+        <v>45382.400367106486</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D294" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E294" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F294" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G294" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="3">
+        <v>45382.40067549769</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D295" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E295" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F295" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G295" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="3">
+        <v>45388.402474664355</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D296" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E296" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F296" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G296" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="3">
+        <v>45388.40275085648</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D297" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E297" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F297" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G297" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="3">
+        <v>45388.403085011574</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D298" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E298" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F298" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G298" s="4">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="3">
+        <v>45388.40339931713</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D299" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E299" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F299" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G299" s="4">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="3">
+        <v>45388.40367858796</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D300" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E300" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F300" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G300" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="3">
+        <v>45388.40399</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D301" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E301" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F301" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G301" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -33623,6 +34880,325 @@
         <v>1.93</v>
       </c>
     </row>
+    <row r="236">
+      <c r="A236" s="3">
+        <v>45382.4071784838</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D236" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E236" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F236" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="G236" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H236" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="I236" s="4">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="3">
+        <v>45382.407686736115</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D237" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E237" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F237" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G237" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H237" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="I237" s="4">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="3">
+        <v>45382.40817810185</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D238" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E238" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F238" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G238" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H238" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="I238" s="4">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="3">
+        <v>45382.4086778125</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D239" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E239" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F239" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G239" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="H239" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="I239" s="4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="3">
+        <v>45388.404863668984</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D240" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E240" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F240" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G240" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H240" s="4">
+        <v>1.16</v>
+      </c>
+      <c r="I240" s="4">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="3">
+        <v>45388.40519993055</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D241" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E241" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F241" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G241" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H241" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="I241" s="4">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3">
+        <v>45388.40560413194</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D242" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E242" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F242" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G242" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="H242" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I242" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3">
+        <v>45388.974537291666</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D243" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E243" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F243" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G243" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H243" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="I243" s="4">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="3">
+        <v>45388.974847881946</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D244" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E244" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F244" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G244" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H244" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="I244" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3">
+        <v>45388.97516533565</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D245" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E245" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F245" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G245" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H245" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="I245" s="4">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="3">
+        <v>45388.9755043287</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D246" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E246" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F246" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G246" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="H246" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="I246" s="4">
+        <v>1.15</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -40430,6 +42006,644 @@
         <v>0.79</v>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" s="3">
+        <v>45382.409462083335</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D235" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E235" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F235" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G235" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H235" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="I235" s="4">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="3">
+        <v>45382.40987310185</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D236" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E236" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F236" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G236" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H236" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="I236" s="4">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="3">
+        <v>45382.41024545139</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D237" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E237" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F237" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G237" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H237" s="4">
+        <v>1.28</v>
+      </c>
+      <c r="I237" s="4">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="3">
+        <v>45382.41069914352</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D238" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E238" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F238" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G238" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H238" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="I238" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="3">
+        <v>45382.41111516204</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D239" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E239" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F239" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G239" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H239" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="I239" s="4">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="3">
+        <v>45388.406587881946</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D240" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E240" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F240" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G240" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H240" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="I240" s="4">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="3">
+        <v>45388.406968483796</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D241" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E241" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F241" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G241" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H241" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="I241" s="4">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3">
+        <v>45388.407328125</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D242" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E242" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F242" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G242" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H242" s="4">
+        <v>3.44</v>
+      </c>
+      <c r="I242" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3">
+        <v>45388.40770743055</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D243" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E243" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F243" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G243" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H243" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="I243" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="3">
+        <v>45388.408112199075</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D244" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E244" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F244" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G244" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H244" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="I244" s="4">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3">
+        <v>45388.40844917824</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D245" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E245" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F245" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G245" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="H245" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I245" s="4">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="3">
+        <v>45388.40881783565</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D246" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E246" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F246" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G246" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H246" s="4">
+        <v>3.03</v>
+      </c>
+      <c r="I246" s="4">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="3">
+        <v>45388.40921327546</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D247" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E247" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F247" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G247" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H247" s="4">
+        <v>3.27</v>
+      </c>
+      <c r="I247" s="4">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="3">
+        <v>45388.409749768514</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D248" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E248" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F248" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G248" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H248" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="I248" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="3">
+        <v>45388.41012929398</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D249" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E249" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F249" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G249" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H249" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="I249" s="4">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3">
+        <v>45388.41050170139</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D250" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E250" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F250" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G250" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H250" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I250" s="4">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="3">
+        <v>45388.41087601852</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D251" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E251" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F251" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G251" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H251" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="I251" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="3">
+        <v>45388.4111733912</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D252" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E252" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F252" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G252" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H252" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="I252" s="4">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="3">
+        <v>45388.975900289355</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D253" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E253" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F253" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G253" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H253" s="4">
+        <v>1.36</v>
+      </c>
+      <c r="I253" s="4">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="3">
+        <v>45388.97623403935</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D254" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E254" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F254" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G254" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H254" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="I254" s="4">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="3">
+        <v>45388.97657934028</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D255" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E255" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F255" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G255" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H255" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="I255" s="4">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="3">
+        <v>45388.97691686342</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D256" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E256" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F256" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G256" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H256" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="I256" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -47006,6 +49220,627 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="286">
+      <c r="A286" s="3">
+        <v>45382.396541979164</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D286" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E286" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F286" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G286" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="3">
+        <v>45382.396855810184</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D287" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E287" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F287" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G287" s="4">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="3">
+        <v>45382.397122395836</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D288" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E288" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F288" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="G288" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="3">
+        <v>45382.39760090278</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D289" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E289" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F289" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G289" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="3">
+        <v>45382.39800189815</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D290" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E290" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F290" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G290" s="4">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="3">
+        <v>45382.39830184028</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D291" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E291" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F291" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G291" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="3">
+        <v>45382.398650358795</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D292" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E292" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F292" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G292" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="3">
+        <v>45382.39902658565</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D293" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E293" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F293" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="G293" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="3">
+        <v>45388.41209241898</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D294" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E294" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F294" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G294" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="3">
+        <v>45388.4123153588</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D295" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E295" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F295" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G295" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="3">
+        <v>45388.41265777778</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D296" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E296" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F296" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G296" s="4">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="3">
+        <v>45388.41290199074</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D297" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E297" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F297" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G297" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="3">
+        <v>45388.41318971065</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D298" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E298" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F298" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G298" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="3">
+        <v>45388.413458668976</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D299" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E299" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F299" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G299" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="3">
+        <v>45388.41375695602</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D300" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E300" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F300" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G300" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="3">
+        <v>45388.41404822917</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D301" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E301" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F301" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G301" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="3">
+        <v>45388.414331458334</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D302" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E302" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F302" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G302" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="3">
+        <v>45388.41478795139</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D303" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E303" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F303" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G303" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="3">
+        <v>45388.415119513884</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D304" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E304" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F304" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="G304" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="3">
+        <v>45388.41557252315</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D305" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E305" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F305" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="G305" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="3">
+        <v>45388.96837328703</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D306" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E306" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F306" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G306" s="4">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="3">
+        <v>45388.9687264699</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D307" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E307" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F307" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G307" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="3">
+        <v>45388.96904510417</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D308" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E308" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F308" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G308" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="3">
+        <v>45388.96935802083</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D309" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E309" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F309" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="G309" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="3">
+        <v>45388.96968524306</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D310" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E310" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F310" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G310" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="3">
+        <v>45388.96992527778</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D311" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E311" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F311" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G311" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="3">
+        <v>45388.9701708912</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D312" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E312" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F312" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G312" s="4">
+        <v>7.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados_Forms.xlsx
+++ b/Dados_Forms.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4070" uniqueCount="142">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -9558,6 +9558,499 @@
         <v>2.16</v>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" s="3">
+        <v>45401.921711504634</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D305" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E305" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F305" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G305" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H305" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="I305" s="4">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="3">
+        <v>45401.92208105324</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E306" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F306" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G306" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H306" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I306" s="4">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="3">
+        <v>45401.922439155096</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D307" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E307" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F307" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G307" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H307" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="I307" s="4">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="3">
+        <v>45401.92287217593</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D308" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E308" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F308" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G308" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H308" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I308" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="3">
+        <v>45401.92320290509</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D309" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E309" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F309" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G309" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H309" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="I309" s="4">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="3">
+        <v>45401.923704270834</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D310" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E310" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F310" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G310" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H310" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="I310" s="4">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="3">
+        <v>45401.9242835301</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D311" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E311" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F311" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G311" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H311" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="I311" s="4">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="3">
+        <v>45401.92483959491</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D312" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E312" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F312" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G312" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H312" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="I312" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="3">
+        <v>45401.92516578703</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D313" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E313" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F313" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G313" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H313" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="I313" s="4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="3">
+        <v>45401.92557369213</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D314" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E314" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F314" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G314" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H314" s="4">
+        <v>2.11</v>
+      </c>
+      <c r="I314" s="4">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="3">
+        <v>45401.926032256946</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D315" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E315" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F315" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G315" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H315" s="4">
+        <v>2.21</v>
+      </c>
+      <c r="I315" s="4">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="3">
+        <v>45401.92641954861</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D316" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E316" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F316" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G316" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H316" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="I316" s="4">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="3">
+        <v>45401.92693997685</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D317" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E317" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F317" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G317" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H317" s="4">
+        <v>2.07</v>
+      </c>
+      <c r="I317" s="4">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="3">
+        <v>45401.92728209491</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D318" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E318" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F318" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G318" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H318" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I318" s="4">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="3">
+        <v>45401.92766375</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D319" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E319" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F319" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G319" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H319" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="I319" s="4">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="3">
+        <v>45401.92796885417</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D320" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E320" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F320" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G320" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H320" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I320" s="4">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="3">
+        <v>45401.92828849537</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D321" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E321" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F321" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G321" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H321" s="4">
+        <v>2.19</v>
+      </c>
+      <c r="I321" s="4">
+        <v>0.66</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15375,6 +15868,282 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="253">
+      <c r="A253" s="3">
+        <v>45401.93083592593</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D253" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E253" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F253" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G253" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="3">
+        <v>45401.931154872684</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D254" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E254" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F254" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G254" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="3">
+        <v>45401.93142237268</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D255" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E255" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F255" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G255" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="3">
+        <v>45401.93184268518</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D256" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E256" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F256" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G256" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="3">
+        <v>45401.932191087966</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D257" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E257" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F257" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G257" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3">
+        <v>45401.932598761574</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D258" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E258" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F258" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G258" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="3">
+        <v>45401.932888807874</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D259" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E259" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F259" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G259" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="3">
+        <v>45401.93316383102</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D260" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E260" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F260" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G260" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="3">
+        <v>45401.93354247685</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D261" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E261" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F261" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G261" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="3">
+        <v>45401.933820289356</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D262" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E262" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F262" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G262" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="3">
+        <v>45401.93406590278</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D263" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E263" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F263" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G263" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="3">
+        <v>45401.934331701385</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D264" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E264" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F264" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G264" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -21100,6 +21869,305 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" s="3">
+        <v>45401.935588506945</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E249" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F249" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G249" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3">
+        <v>45401.93582063657</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D250" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E250" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F250" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G250" s="4">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="3">
+        <v>45401.93611747686</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D251" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E251" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F251" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G251" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="3">
+        <v>45401.936573530096</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D252" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E252" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F252" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G252" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="3">
+        <v>45401.93686396991</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D253" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E253" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F253" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G253" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="3">
+        <v>45401.93715111111</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D254" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E254" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F254" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G254" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="3">
+        <v>45401.93743006945</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D255" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E255" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F255" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G255" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="3">
+        <v>45401.93783222222</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D256" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E256" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F256" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G256" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="3">
+        <v>45401.93820229167</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D257" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E257" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F257" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G257" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3">
+        <v>45401.938551354164</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D258" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E258" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F258" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G258" s="4">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="3">
+        <v>45401.93881291666</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D259" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E259" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F259" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G259" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="3">
+        <v>45401.939065150465</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D260" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E260" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F260" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G260" s="4">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="3">
+        <v>45401.939357118055</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D261" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E261" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F261" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G261" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -28044,6 +29112,259 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="3">
+        <v>45401.94083548611</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D302" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E302" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F302" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G302" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="3">
+        <v>45401.94128180556</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D303" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E303" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F303" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G303" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="3">
+        <v>45401.942060381945</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D304" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E304" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F304" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G304" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="3">
+        <v>45401.94237069444</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D305" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E305" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F305" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G305" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="3">
+        <v>45401.94266271991</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D306" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E306" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F306" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G306" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="3">
+        <v>45401.94302175926</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E307" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F307" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G307" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="3">
+        <v>45401.94334412037</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D308" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E308" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F308" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G308" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="3">
+        <v>45401.94464090277</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D309" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E309" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F309" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G309" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="3">
+        <v>45401.94504827546</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D310" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E310" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F310" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G310" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="3">
+        <v>45401.94539167824</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D311" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E311" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F311" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G311" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="3">
+        <v>45401.945664467596</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D312" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E312" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F312" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G312" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -35199,6 +36520,441 @@
         <v>1.15</v>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" s="3">
+        <v>45401.94664900463</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D247" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E247" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F247" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G247" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H247" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="I247" s="4">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="3">
+        <v>45401.947022824075</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D248" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E248" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F248" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G248" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H248" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="I248" s="4">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="3">
+        <v>45401.94764592593</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D249" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E249" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F249" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G249" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H249" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="I249" s="4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3">
+        <v>45401.947948726855</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D250" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E250" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F250" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G250" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H250" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="I250" s="4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="3">
+        <v>45401.94838041667</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D251" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E251" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F251" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G251" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H251" s="4">
+        <v>1.58</v>
+      </c>
+      <c r="I251" s="4">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="3">
+        <v>45401.948859282405</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D252" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E252" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F252" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G252" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H252" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="I252" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="3">
+        <v>45401.94919424769</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D253" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E253" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F253" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G253" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H253" s="4">
+        <v>3.53</v>
+      </c>
+      <c r="I253" s="4">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="3">
+        <v>45401.94957789352</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D254" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E254" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F254" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G254" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H254" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="I254" s="4">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="3">
+        <v>45401.94997236111</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D255" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E255" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F255" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G255" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H255" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="I255" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="3">
+        <v>45401.95037740741</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D256" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E256" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F256" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G256" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H256" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="I256" s="4">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="3">
+        <v>45401.95074247685</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D257" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E257" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F257" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G257" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H257" s="4">
+        <v>3.27</v>
+      </c>
+      <c r="I257" s="4">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3">
+        <v>45401.95111247685</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D258" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E258" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F258" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G258" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H258" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="I258" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="3">
+        <v>45401.951475231486</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D259" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E259" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F259" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G259" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H259" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="I259" s="4">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="3">
+        <v>45401.95200100694</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D260" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E260" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F260" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G260" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H260" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I260" s="4">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="3">
+        <v>45401.95244355324</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D261" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E261" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F261" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G261" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H261" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="I261" s="4">
+        <v>1.07</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -42644,6 +44400,412 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" s="3">
+        <v>45401.95509396991</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D257" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E257" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F257" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G257" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H257" s="4">
+        <v>1.11</v>
+      </c>
+      <c r="I257" s="4">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3">
+        <v>45401.9559375463</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D258" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E258" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F258" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G258" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H258" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="I258" s="4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="3">
+        <v>45401.95630265046</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D259" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E259" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F259" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G259" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H259" s="4">
+        <v>3.62</v>
+      </c>
+      <c r="I259" s="4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="3">
+        <v>45401.956656932874</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D260" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E260" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F260" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G260" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H260" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I260" s="4">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="3">
+        <v>45401.95698636574</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D261" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E261" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F261" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G261" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H261" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="I261" s="4">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="3">
+        <v>45401.95733517361</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D262" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E262" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F262" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G262" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H262" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="I262" s="4">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="3">
+        <v>45401.957735034724</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D263" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E263" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F263" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G263" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H263" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="I263" s="4">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="3">
+        <v>45401.958070740744</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D264" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E264" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F264" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G264" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H264" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="I264" s="4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="3">
+        <v>45401.95838859954</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D265" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E265" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F265" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G265" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H265" s="4">
+        <v>1.15</v>
+      </c>
+      <c r="I265" s="4">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="3">
+        <v>45401.958979641204</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D266" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E266" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F266" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G266" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H266" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="I266" s="4">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="3">
+        <v>45401.95937574074</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D267" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E267" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F267" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G267" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H267" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="I267" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="3">
+        <v>45401.95967298611</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D268" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E268" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F268" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G268" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H268" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I268" s="4">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="3">
+        <v>45401.960203738425</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D269" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E269" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F269" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G269" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H269" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="I269" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="3">
+        <v>45401.96062568287</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D270" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E270" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F270" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G270" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H270" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="I270" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -49841,6 +52003,305 @@
         <v>7.0</v>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" s="3">
+        <v>45401.962045636574</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D313" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E313" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F313" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G313" s="4">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="3">
+        <v>45401.96244803241</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D314" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E314" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F314" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G314" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="3">
+        <v>45401.96273488426</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D315" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E315" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F315" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="G315" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="3">
+        <v>45401.96298913195</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D316" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E316" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F316" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="G316" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="3">
+        <v>45401.96325115741</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D317" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E317" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F317" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G317" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="3">
+        <v>45401.96351435185</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D318" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E318" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F318" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G318" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="3">
+        <v>45401.96386047454</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D319" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E319" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F319" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G319" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="3">
+        <v>45401.96415354167</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D320" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E320" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F320" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="G320" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="3">
+        <v>45401.96444511574</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D321" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E321" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F321" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="G321" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="3">
+        <v>45401.96493938657</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D322" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E322" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F322" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G322" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="3">
+        <v>45401.96528778935</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D323" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E323" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F323" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G323" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="3">
+        <v>45401.9655465625</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D324" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E324" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F324" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G324" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="3">
+        <v>45401.965860717595</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D325" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E325" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F325" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G325" s="4">
+        <v>8.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
